--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_yyn_gen_pf_sc_results_1_bus_ward34_solid.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_yyn_gen_pf_sc_results_1_bus_ward34_solid.xlsx
@@ -541,10 +541,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8909260930493287</v>
+        <v>0.8909260930483733</v>
       </c>
       <c r="G2">
-        <v>0.713995696898965</v>
+        <v>0.7139956970177583</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -552,22 +552,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>15.44302300401258</v>
+        <v>5.496310909000787</v>
       </c>
       <c r="C3">
-        <v>534.9620093080948</v>
+        <v>190.3977949716888</v>
       </c>
       <c r="D3">
-        <v>0.3928146973799873</v>
+        <v>0.1077319053846547</v>
       </c>
       <c r="E3">
-        <v>0.7226227689206017</v>
+        <v>2.308438694642959</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>61.47168303997802</v>
+        <v>87.32801736352476</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -587,10 +587,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7333333491273745</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>-6.157803613501171E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -610,10 +610,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023694295</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-6.422808993115684E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023694295</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-6.422808993115684E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -752,22 +752,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.140728541369814</v>
+        <v>1.04659506804995</v>
       </c>
       <c r="O2">
-        <v>0.8909260930493309</v>
+        <v>0.890926093052382</v>
       </c>
       <c r="P2">
-        <v>1.129697520623526</v>
+        <v>1.056652021165216</v>
       </c>
       <c r="Q2">
-        <v>24.46915770125949</v>
+        <v>25.18850204033979</v>
       </c>
       <c r="R2">
-        <v>-89.28600430313648</v>
+        <v>-89.28600430314906</v>
       </c>
       <c r="S2">
-        <v>158.2638955218483</v>
+        <v>155.0677071882993</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -778,55 +778,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.16119423267912</v>
+        <v>4.759944874248876</v>
       </c>
       <c r="D3">
-        <v>7.16119423267912</v>
+        <v>4.759944874248876</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>82.69034835912973</v>
+        <v>54.96310908950736</v>
       </c>
       <c r="G3">
-        <v>82.69034835912973</v>
+        <v>54.96310908950736</v>
       </c>
       <c r="H3">
-        <v>8.087653516667004</v>
+        <v>5.549477056495876</v>
       </c>
       <c r="I3">
-        <v>4.690162830537893</v>
+        <v>2.197592797843661</v>
       </c>
       <c r="J3">
-        <v>0.3928146973851533</v>
+        <v>0.1077319054063102</v>
       </c>
       <c r="K3">
-        <v>0.7226227689270468</v>
+        <v>2.308438694631066</v>
       </c>
       <c r="L3">
-        <v>0.107731905413396</v>
+        <v>0.1077319054133287</v>
       </c>
       <c r="M3">
-        <v>2.308438694642998</v>
+        <v>2.308438694642942</v>
       </c>
       <c r="N3">
-        <v>1.433200187744535</v>
+        <v>0.9526279648020819</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1.433200187746245</v>
+        <v>0.9526279648025193</v>
       </c>
       <c r="Q3">
-        <v>6.705157968570707</v>
+        <v>-4.057898871037865E-12</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-173.2948420314155</v>
+        <v>-179.99999999999</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.62908203453838</v>
+        <v>0.9526279647753109</v>
       </c>
       <c r="O4">
-        <v>0.1963332894501646</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.5519263187304</v>
+        <v>0.9526279648292906</v>
       </c>
       <c r="Q4">
-        <v>7.204114301359171</v>
+        <v>1.415050686472405E-09</v>
       </c>
       <c r="R4">
-        <v>-109.1511763453201</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.3049172438177</v>
+        <v>179.9999999985763</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -929,22 +929,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.72706140430087</v>
+        <v>0.9526279647663871</v>
       </c>
       <c r="O5">
-        <v>0.2944999341725942</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.616969891336567</v>
+        <v>0.9526279648382142</v>
       </c>
       <c r="Q5">
-        <v>7.411141343309365</v>
+        <v>1.888097484370796E-09</v>
       </c>
       <c r="R5">
-        <v>-109.151176347295</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>178.0354964738001</v>
+        <v>179.9999999981033</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.727061404300871</v>
+        <v>0.952627964766387</v>
       </c>
       <c r="O6">
-        <v>0.2944999341725944</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.616969891336567</v>
+        <v>0.9526279648382142</v>
       </c>
       <c r="Q6">
-        <v>7.411141343309364</v>
+        <v>1.888099387923842E-09</v>
       </c>
       <c r="R6">
-        <v>-109.1511763472951</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>178.0354964738001</v>
+        <v>179.9999999981033</v>
       </c>
     </row>
   </sheetData>
@@ -1119,22 +1119,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.125126304486826</v>
+        <v>1.095305273568648</v>
       </c>
       <c r="O2">
-        <v>1.039005701805598</v>
+        <v>1.018983908531544</v>
       </c>
       <c r="P2">
-        <v>1.084555875969712</v>
+        <v>1.06511527042063</v>
       </c>
       <c r="Q2">
-        <v>28.63966269727486</v>
+        <v>27.70356907604971</v>
       </c>
       <c r="R2">
-        <v>-91.36509008579422</v>
+        <v>-91.92524130249696</v>
       </c>
       <c r="S2">
-        <v>152.5806034027813</v>
+        <v>151.4402860785753</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1145,55 +1145,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.260080993020377</v>
+        <v>2.010953897753578</v>
       </c>
       <c r="D3">
-        <v>2.260080993020377</v>
+        <v>2.010953897753578</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.09716739421343</v>
+        <v>23.22049548391911</v>
       </c>
       <c r="G3">
-        <v>26.09716739421343</v>
+        <v>23.22049548391911</v>
       </c>
       <c r="H3">
-        <v>8.087653516667004</v>
+        <v>5.549477056495876</v>
       </c>
       <c r="I3">
-        <v>4.690162830537893</v>
+        <v>2.197592797843661</v>
       </c>
       <c r="J3">
-        <v>0.3928146973851533</v>
+        <v>0.1077319054063102</v>
       </c>
       <c r="K3">
-        <v>0.7226227689270468</v>
+        <v>2.308438694631066</v>
       </c>
       <c r="L3">
-        <v>0.107731905413396</v>
+        <v>0.1077319054133287</v>
       </c>
       <c r="M3">
-        <v>2.308438694642998</v>
+        <v>2.308438694642942</v>
       </c>
       <c r="N3">
-        <v>1.244701134507809</v>
+        <v>1.107498627573925</v>
       </c>
       <c r="O3">
-        <v>0.7990592980970409</v>
+        <v>0.7109795688765317</v>
       </c>
       <c r="P3">
-        <v>1.030788757023797</v>
+        <v>0.91716565693814</v>
       </c>
       <c r="Q3">
-        <v>23.8575352239788</v>
+        <v>17.92198046293675</v>
       </c>
       <c r="R3">
-        <v>-100.5924039318346</v>
+        <v>-106.5279586928746</v>
       </c>
       <c r="S3">
-        <v>164.1224013379911</v>
+        <v>158.1868465769574</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1237,22 +1237,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.305369008527125</v>
+        <v>1.107498627561355</v>
       </c>
       <c r="O4">
-        <v>0.8586591032239236</v>
+        <v>0.7109795688760389</v>
       </c>
       <c r="P4">
-        <v>1.092147733430942</v>
+        <v>0.9171656569531272</v>
       </c>
       <c r="Q4">
-        <v>24.42401249258995</v>
+        <v>17.92198046336738</v>
       </c>
       <c r="R4">
-        <v>-99.41998940074268</v>
+        <v>-106.5279586904451</v>
       </c>
       <c r="S4">
-        <v>163.6563342948652</v>
+        <v>158.1868465770594</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1296,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.335747534637504</v>
+        <v>1.107498627557165</v>
       </c>
       <c r="O5">
-        <v>0.8885802513896057</v>
+        <v>0.7109795688758744</v>
       </c>
       <c r="P5">
-        <v>1.122852099532318</v>
+        <v>0.9171656569581229</v>
       </c>
       <c r="Q5">
-        <v>24.6879418232112</v>
+        <v>17.92198046351092</v>
       </c>
       <c r="R5">
-        <v>-98.89286955459035</v>
+        <v>-106.5279586896353</v>
       </c>
       <c r="S5">
-        <v>163.4424091990418</v>
+        <v>158.1868465770934</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1355,22 +1355,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.335747534637504</v>
+        <v>1.107498627557165</v>
       </c>
       <c r="O6">
-        <v>0.8885802513896057</v>
+        <v>0.7109795688758744</v>
       </c>
       <c r="P6">
-        <v>1.122852099532318</v>
+        <v>0.9171656569581229</v>
       </c>
       <c r="Q6">
-        <v>24.6879418232112</v>
+        <v>17.92198046351093</v>
       </c>
       <c r="R6">
-        <v>-98.89286955459035</v>
+        <v>-106.5279586896353</v>
       </c>
       <c r="S6">
-        <v>163.4424091990418</v>
+        <v>158.1868465770934</v>
       </c>
     </row>
   </sheetData>
@@ -1486,22 +1486,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.125126304486826</v>
+        <v>1.095305273568648</v>
       </c>
       <c r="O2">
-        <v>1.039005701805598</v>
+        <v>1.018983908531544</v>
       </c>
       <c r="P2">
-        <v>1.084555875969712</v>
+        <v>1.06511527042063</v>
       </c>
       <c r="Q2">
-        <v>28.63966269727486</v>
+        <v>27.70356907604971</v>
       </c>
       <c r="R2">
-        <v>-91.36509008579422</v>
+        <v>-91.92524130249696</v>
       </c>
       <c r="S2">
-        <v>152.5806034027813</v>
+        <v>151.4402860785753</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1512,55 +1512,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.260080993020377</v>
+        <v>2.010953897753578</v>
       </c>
       <c r="D3">
-        <v>2.260080993020377</v>
+        <v>2.010953897753578</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.09716739421343</v>
+        <v>23.22049548391911</v>
       </c>
       <c r="G3">
-        <v>26.09716739421343</v>
+        <v>23.22049548391911</v>
       </c>
       <c r="H3">
-        <v>8.087653516667004</v>
+        <v>5.549477056495876</v>
       </c>
       <c r="I3">
-        <v>4.690162830537893</v>
+        <v>2.197592797843661</v>
       </c>
       <c r="J3">
-        <v>0.3928146973851533</v>
+        <v>0.1077319054063102</v>
       </c>
       <c r="K3">
-        <v>0.7226227689270468</v>
+        <v>2.308438694631066</v>
       </c>
       <c r="L3">
-        <v>0.107731905413396</v>
+        <v>0.1077319054133287</v>
       </c>
       <c r="M3">
-        <v>2.308438694642998</v>
+        <v>2.308438694642942</v>
       </c>
       <c r="N3">
-        <v>1.244701134507809</v>
+        <v>1.107498627573925</v>
       </c>
       <c r="O3">
-        <v>0.7990592980970409</v>
+        <v>0.7109795688765317</v>
       </c>
       <c r="P3">
-        <v>1.030788757023797</v>
+        <v>0.91716565693814</v>
       </c>
       <c r="Q3">
-        <v>23.8575352239788</v>
+        <v>17.92198046293675</v>
       </c>
       <c r="R3">
-        <v>-100.5924039318346</v>
+        <v>-106.5279586928746</v>
       </c>
       <c r="S3">
-        <v>164.1224013379911</v>
+        <v>158.1868465769574</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1604,22 +1604,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.305369008527125</v>
+        <v>1.107498627561355</v>
       </c>
       <c r="O4">
-        <v>0.8586591032239236</v>
+        <v>0.7109795688760389</v>
       </c>
       <c r="P4">
-        <v>1.092147733430942</v>
+        <v>0.9171656569531272</v>
       </c>
       <c r="Q4">
-        <v>24.42401249258995</v>
+        <v>17.92198046336738</v>
       </c>
       <c r="R4">
-        <v>-99.41998940074268</v>
+        <v>-106.5279586904451</v>
       </c>
       <c r="S4">
-        <v>163.6563342948652</v>
+        <v>158.1868465770594</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1663,22 +1663,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.335747534637504</v>
+        <v>1.107498627557165</v>
       </c>
       <c r="O5">
-        <v>0.8885802513896057</v>
+        <v>0.7109795688758744</v>
       </c>
       <c r="P5">
-        <v>1.122852099532318</v>
+        <v>0.9171656569581229</v>
       </c>
       <c r="Q5">
-        <v>24.6879418232112</v>
+        <v>17.92198046351092</v>
       </c>
       <c r="R5">
-        <v>-98.89286955459035</v>
+        <v>-106.5279586896353</v>
       </c>
       <c r="S5">
-        <v>163.4424091990418</v>
+        <v>158.1868465770934</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1722,22 +1722,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.335747534637504</v>
+        <v>1.107498627557165</v>
       </c>
       <c r="O6">
-        <v>0.8885802513896057</v>
+        <v>0.7109795688758744</v>
       </c>
       <c r="P6">
-        <v>1.122852099532318</v>
+        <v>0.9171656569581229</v>
       </c>
       <c r="Q6">
-        <v>24.6879418232112</v>
+        <v>17.92198046351093</v>
       </c>
       <c r="R6">
-        <v>-98.89286955459035</v>
+        <v>-106.5279586896353</v>
       </c>
       <c r="S6">
-        <v>163.4424091990418</v>
+        <v>158.1868465770934</v>
       </c>
     </row>
   </sheetData>
@@ -1853,22 +1853,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.030307852742812</v>
+        <v>0.9477232070952268</v>
       </c>
       <c r="O2">
-        <v>0.7936674232780397</v>
+        <v>0.7936674232739477</v>
       </c>
       <c r="P2">
-        <v>1.006967187942431</v>
+        <v>0.9574835309888192</v>
       </c>
       <c r="Q2">
-        <v>25.24627654431811</v>
+        <v>24.75158797610128</v>
       </c>
       <c r="R2">
-        <v>-89.22492623898273</v>
+        <v>-89.22492623897121</v>
       </c>
       <c r="S2">
-        <v>159.4081908469017</v>
+        <v>155.5173957043593</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1879,55 +1879,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.82440586210287</v>
+        <v>4.133684588661919</v>
       </c>
       <c r="D3">
-        <v>5.82440586210287</v>
+        <v>4.133684588661919</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>67.25444584709453</v>
+        <v>47.73167820017932</v>
       </c>
       <c r="G3">
-        <v>67.25444584709453</v>
+        <v>47.73167820017932</v>
       </c>
       <c r="H3">
-        <v>13.20394437273244</v>
+        <v>10.65491498231264</v>
       </c>
       <c r="I3">
-        <v>4.655359409756196</v>
+        <v>2.173959091208256</v>
       </c>
       <c r="J3">
-        <v>0.6750274779031088</v>
+        <v>0.1153518594840182</v>
       </c>
       <c r="K3">
-        <v>0.9252286926315889</v>
+        <v>2.416397540698256</v>
       </c>
       <c r="L3">
-        <v>0.115351859471422</v>
+        <v>0.1153518594713441</v>
       </c>
       <c r="M3">
-        <v>2.416397540675931</v>
+        <v>2.41639754067588</v>
       </c>
       <c r="N3">
-        <v>1.220239070095367</v>
+        <v>0.8660254037841223</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1.220239070094565</v>
+        <v>0.8660254037841824</v>
       </c>
       <c r="Q3">
-        <v>10.57428493842365</v>
+        <v>3.072507624237629E-11</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-169.4257150616876</v>
+        <v>179.9999999999606</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1971,22 +1971,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.442267974799001</v>
+        <v>0.8660254037597848</v>
       </c>
       <c r="O4">
-        <v>0.222356243459322</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.334754106661386</v>
+        <v>0.8660254038085196</v>
       </c>
       <c r="Q4">
-        <v>10.05338164841538</v>
+        <v>2.755408590288587E-09</v>
       </c>
       <c r="R4">
-        <v>-112.8063616263907</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>-177.9907344442205</v>
+        <v>179.9999999972359</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2030,22 +2030,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.553317545401938</v>
+        <v>0.8660254037516721</v>
       </c>
       <c r="O5">
-        <v>0.3335343651812498</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.401764180610277</v>
+        <v>0.866025403816632</v>
       </c>
       <c r="Q5">
-        <v>9.84878113296201</v>
+        <v>3.663637728479492E-09</v>
       </c>
       <c r="R5">
-        <v>-112.8063616283414</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>178.292593569558</v>
+        <v>179.9999999963276</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.553317545401938</v>
+        <v>0.8660254037516721</v>
       </c>
       <c r="O6">
-        <v>0.3335343651812502</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.401764180610277</v>
+        <v>0.866025403816632</v>
       </c>
       <c r="Q6">
-        <v>9.848781132962014</v>
+        <v>3.663634956918801E-09</v>
       </c>
       <c r="R6">
-        <v>-112.8063616283414</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>178.292593569558</v>
+        <v>179.9999999963276</v>
       </c>
     </row>
   </sheetData>
@@ -2220,22 +2220,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.030307852742812</v>
+        <v>0.9477232070952268</v>
       </c>
       <c r="O2">
-        <v>0.7936674232780397</v>
+        <v>0.7936674232739477</v>
       </c>
       <c r="P2">
-        <v>1.006967187942431</v>
+        <v>0.9574835309888192</v>
       </c>
       <c r="Q2">
-        <v>25.24627654431811</v>
+        <v>24.75158797610128</v>
       </c>
       <c r="R2">
-        <v>-89.22492623898273</v>
+        <v>-89.22492623897121</v>
       </c>
       <c r="S2">
-        <v>159.4081908469017</v>
+        <v>155.5173957043593</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2246,55 +2246,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.82440586210287</v>
+        <v>4.133684588661919</v>
       </c>
       <c r="D3">
-        <v>5.82440586210287</v>
+        <v>4.133684588661919</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>67.25444584709453</v>
+        <v>47.73167820017932</v>
       </c>
       <c r="G3">
-        <v>67.25444584709453</v>
+        <v>47.73167820017932</v>
       </c>
       <c r="H3">
-        <v>13.20394437273244</v>
+        <v>10.65491498231264</v>
       </c>
       <c r="I3">
-        <v>4.655359409756196</v>
+        <v>2.173959091208256</v>
       </c>
       <c r="J3">
-        <v>0.6750274779031088</v>
+        <v>0.1153518594840182</v>
       </c>
       <c r="K3">
-        <v>0.9252286926315889</v>
+        <v>2.416397540698256</v>
       </c>
       <c r="L3">
-        <v>0.115351859471422</v>
+        <v>0.1153518594713441</v>
       </c>
       <c r="M3">
-        <v>2.416397540675931</v>
+        <v>2.41639754067588</v>
       </c>
       <c r="N3">
-        <v>1.220239070095367</v>
+        <v>0.8660254037841223</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1.220239070094565</v>
+        <v>0.8660254037841824</v>
       </c>
       <c r="Q3">
-        <v>10.57428493842365</v>
+        <v>3.072507624237629E-11</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-169.4257150616876</v>
+        <v>179.9999999999606</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2338,22 +2338,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.442267974799001</v>
+        <v>0.8660254037597848</v>
       </c>
       <c r="O4">
-        <v>0.222356243459322</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.334754106661386</v>
+        <v>0.8660254038085196</v>
       </c>
       <c r="Q4">
-        <v>10.05338164841538</v>
+        <v>2.755408590288587E-09</v>
       </c>
       <c r="R4">
-        <v>-112.8063616263907</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>-177.9907344442205</v>
+        <v>179.9999999972359</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2397,22 +2397,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.553317545401938</v>
+        <v>0.8660254037516721</v>
       </c>
       <c r="O5">
-        <v>0.3335343651812498</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.401764180610277</v>
+        <v>0.866025403816632</v>
       </c>
       <c r="Q5">
-        <v>9.84878113296201</v>
+        <v>3.663637728479492E-09</v>
       </c>
       <c r="R5">
-        <v>-112.8063616283414</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>178.292593569558</v>
+        <v>179.9999999963276</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.553317545401938</v>
+        <v>0.8660254037516721</v>
       </c>
       <c r="O6">
-        <v>0.3335343651812502</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.401764180610277</v>
+        <v>0.866025403816632</v>
       </c>
       <c r="Q6">
-        <v>9.848781132962014</v>
+        <v>3.663634956918801E-09</v>
       </c>
       <c r="R6">
-        <v>-112.8063616283414</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>178.292593569558</v>
+        <v>179.9999999963276</v>
       </c>
     </row>
   </sheetData>
@@ -2587,22 +2587,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.019258666615485</v>
+        <v>0.9949806626618444</v>
       </c>
       <c r="O2">
-        <v>0.9339747387549374</v>
+        <v>0.9175617791399002</v>
       </c>
       <c r="P2">
-        <v>0.9788948841550403</v>
+        <v>0.9648695716021195</v>
       </c>
       <c r="Q2">
-        <v>28.67542848142816</v>
+        <v>27.43727595412386</v>
       </c>
       <c r="R2">
-        <v>-91.35932665351511</v>
+        <v>-92.12802105335017</v>
       </c>
       <c r="S2">
-        <v>152.9859137209576</v>
+        <v>151.6304298035849</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2613,55 +2613,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.969595442536661</v>
+        <v>1.795733578210679</v>
       </c>
       <c r="D3">
-        <v>1.969595442536661</v>
+        <v>1.795733578210679</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>22.74292917886403</v>
+        <v>20.73534529545571</v>
       </c>
       <c r="G3">
-        <v>22.74292917886403</v>
+        <v>20.73534529545571</v>
       </c>
       <c r="H3">
-        <v>13.20394437273244</v>
+        <v>10.65491498231264</v>
       </c>
       <c r="I3">
-        <v>4.655359409756196</v>
+        <v>2.173959091208256</v>
       </c>
       <c r="J3">
-        <v>0.6750274779031088</v>
+        <v>0.1153518594840182</v>
       </c>
       <c r="K3">
-        <v>0.9252286926315889</v>
+        <v>2.416397540698256</v>
       </c>
       <c r="L3">
-        <v>0.115351859471422</v>
+        <v>0.1153518594713441</v>
       </c>
       <c r="M3">
-        <v>2.416397540675931</v>
+        <v>2.41639754067588</v>
       </c>
       <c r="N3">
-        <v>1.103064584151265</v>
+        <v>1.005693895264115</v>
       </c>
       <c r="O3">
-        <v>0.6963571468081131</v>
+        <v>0.6348876951823895</v>
       </c>
       <c r="P3">
-        <v>0.911166497474886</v>
+        <v>0.8307352055776827</v>
       </c>
       <c r="Q3">
-        <v>24.32533059165013</v>
+        <v>17.57011779536514</v>
       </c>
       <c r="R3">
-        <v>-100.2333687795766</v>
+        <v>-106.9885815758096</v>
       </c>
       <c r="S3">
-        <v>165.3199803375966</v>
+        <v>158.5647675412735</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2705,22 +2705,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.178056402669295</v>
+        <v>1.005693895251238</v>
       </c>
       <c r="O4">
-        <v>0.7707346635164332</v>
+        <v>0.6348876951946467</v>
       </c>
       <c r="P4">
-        <v>0.9834365012740237</v>
+        <v>0.8307352055979551</v>
       </c>
       <c r="Q4">
-        <v>24.60128907875493</v>
+        <v>17.5701177962944</v>
       </c>
       <c r="R4">
-        <v>-99.36986473926513</v>
+        <v>-106.9885815722256</v>
       </c>
       <c r="S4">
-        <v>164.0634303751977</v>
+        <v>158.5647675409582</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.215561611534047</v>
+        <v>1.005693895246946</v>
       </c>
       <c r="O5">
-        <v>0.8079800012319831</v>
+        <v>0.6348876951987324</v>
       </c>
       <c r="P5">
-        <v>1.019730000060616</v>
+        <v>0.8307352056047126</v>
       </c>
       <c r="Q5">
-        <v>24.72649832209872</v>
+        <v>17.57011779660414</v>
       </c>
       <c r="R5">
-        <v>-98.99777095458536</v>
+        <v>-106.988581571031</v>
       </c>
       <c r="S5">
-        <v>163.5020794455262</v>
+        <v>158.5647675408531</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2823,22 +2823,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.215561611534047</v>
+        <v>1.005693895246946</v>
       </c>
       <c r="O6">
-        <v>0.8079800012319831</v>
+        <v>0.6348876951987324</v>
       </c>
       <c r="P6">
-        <v>1.019730000060616</v>
+        <v>0.8307352056047126</v>
       </c>
       <c r="Q6">
-        <v>24.72649832209872</v>
+        <v>17.57011779660414</v>
       </c>
       <c r="R6">
-        <v>-98.99777095458536</v>
+        <v>-106.988581571031</v>
       </c>
       <c r="S6">
-        <v>163.5020794455262</v>
+        <v>158.5647675408531</v>
       </c>
     </row>
   </sheetData>
@@ -2954,22 +2954,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.019258666615485</v>
+        <v>0.9949806626618444</v>
       </c>
       <c r="O2">
-        <v>0.9339747387549374</v>
+        <v>0.9175617791399002</v>
       </c>
       <c r="P2">
-        <v>0.9788948841550403</v>
+        <v>0.9648695716021195</v>
       </c>
       <c r="Q2">
-        <v>28.67542848142816</v>
+        <v>27.43727595412386</v>
       </c>
       <c r="R2">
-        <v>-91.35932665351511</v>
+        <v>-92.12802105335017</v>
       </c>
       <c r="S2">
-        <v>152.9859137209576</v>
+        <v>151.6304298035849</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2980,55 +2980,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.969595442536661</v>
+        <v>1.795733578210679</v>
       </c>
       <c r="D3">
-        <v>1.969595442536661</v>
+        <v>1.795733578210679</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>22.74292917886403</v>
+        <v>20.73534529545571</v>
       </c>
       <c r="G3">
-        <v>22.74292917886403</v>
+        <v>20.73534529545571</v>
       </c>
       <c r="H3">
-        <v>13.20394437273244</v>
+        <v>10.65491498231264</v>
       </c>
       <c r="I3">
-        <v>4.655359409756196</v>
+        <v>2.173959091208256</v>
       </c>
       <c r="J3">
-        <v>0.6750274779031088</v>
+        <v>0.1153518594840182</v>
       </c>
       <c r="K3">
-        <v>0.9252286926315889</v>
+        <v>2.416397540698256</v>
       </c>
       <c r="L3">
-        <v>0.115351859471422</v>
+        <v>0.1153518594713441</v>
       </c>
       <c r="M3">
-        <v>2.416397540675931</v>
+        <v>2.41639754067588</v>
       </c>
       <c r="N3">
-        <v>1.103064584151265</v>
+        <v>1.005693895264115</v>
       </c>
       <c r="O3">
-        <v>0.6963571468081131</v>
+        <v>0.6348876951823895</v>
       </c>
       <c r="P3">
-        <v>0.911166497474886</v>
+        <v>0.8307352055776827</v>
       </c>
       <c r="Q3">
-        <v>24.32533059165013</v>
+        <v>17.57011779536514</v>
       </c>
       <c r="R3">
-        <v>-100.2333687795766</v>
+        <v>-106.9885815758096</v>
       </c>
       <c r="S3">
-        <v>165.3199803375966</v>
+        <v>158.5647675412735</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3072,22 +3072,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.178056402669295</v>
+        <v>1.005693895251238</v>
       </c>
       <c r="O4">
-        <v>0.7707346635164332</v>
+        <v>0.6348876951946467</v>
       </c>
       <c r="P4">
-        <v>0.9834365012740237</v>
+        <v>0.8307352055979551</v>
       </c>
       <c r="Q4">
-        <v>24.60128907875493</v>
+        <v>17.5701177962944</v>
       </c>
       <c r="R4">
-        <v>-99.36986473926513</v>
+        <v>-106.9885815722256</v>
       </c>
       <c r="S4">
-        <v>164.0634303751977</v>
+        <v>158.5647675409582</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3131,22 +3131,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.215561611534047</v>
+        <v>1.005693895246946</v>
       </c>
       <c r="O5">
-        <v>0.8079800012319831</v>
+        <v>0.6348876951987324</v>
       </c>
       <c r="P5">
-        <v>1.019730000060616</v>
+        <v>0.8307352056047126</v>
       </c>
       <c r="Q5">
-        <v>24.72649832209872</v>
+        <v>17.57011779660414</v>
       </c>
       <c r="R5">
-        <v>-98.99777095458536</v>
+        <v>-106.988581571031</v>
       </c>
       <c r="S5">
-        <v>163.5020794455262</v>
+        <v>158.5647675408531</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.215561611534047</v>
+        <v>1.005693895246946</v>
       </c>
       <c r="O6">
-        <v>0.8079800012319831</v>
+        <v>0.6348876951987324</v>
       </c>
       <c r="P6">
-        <v>1.019730000060616</v>
+        <v>0.8307352056047126</v>
       </c>
       <c r="Q6">
-        <v>24.72649832209872</v>
+        <v>17.57011779660414</v>
       </c>
       <c r="R6">
-        <v>-98.99777095458536</v>
+        <v>-106.988581571031</v>
       </c>
       <c r="S6">
-        <v>163.5020794455262</v>
+        <v>158.5647675408531</v>
       </c>
     </row>
   </sheetData>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.045798675903197</v>
+        <v>1.006400165160399</v>
       </c>
       <c r="O2">
-        <v>1.116935782489237</v>
+        <v>1.100000023846833</v>
       </c>
       <c r="P2">
-        <v>1.095579283531372</v>
+        <v>1.062983180491356</v>
       </c>
       <c r="Q2">
-        <v>30.46508655359094</v>
+        <v>29.57860611708429</v>
       </c>
       <c r="R2">
-        <v>-88.7691539809566</v>
+        <v>-89.99999999999638</v>
       </c>
       <c r="S2">
-        <v>147.636935439022</v>
+        <v>145.4251889501103</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>3.299490926462618</v>
+        <v>4.269054431591091</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>38.09923949163841</v>
+        <v>49.29479450528563</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3368,43 +3368,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8.087653516667034</v>
+        <v>5.549477056495878</v>
       </c>
       <c r="I3">
-        <v>4.690162830537798</v>
+        <v>2.197592797843465</v>
       </c>
       <c r="J3">
-        <v>0.3928146973595497</v>
+        <v>0.1077319053180345</v>
       </c>
       <c r="K3">
-        <v>0.7226227689300018</v>
+        <v>2.308438694642959</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131385</v>
+        <v>0.1077319054132185</v>
       </c>
       <c r="M3">
-        <v>2.308438694642653</v>
+        <v>2.308438694642675</v>
       </c>
       <c r="N3">
-        <v>0.8137140008701833</v>
+        <v>0.6144432972249562</v>
       </c>
       <c r="O3">
-        <v>1.187979997492081</v>
+        <v>1.100000023852325</v>
       </c>
       <c r="P3">
-        <v>1.110400340220074</v>
+        <v>1.019342441086347</v>
       </c>
       <c r="Q3">
-        <v>32.07219281776336</v>
+        <v>23.9380781770396</v>
       </c>
       <c r="R3">
-        <v>-83.694340801929</v>
+        <v>-89.99999999999737</v>
       </c>
       <c r="S3">
-        <v>137.6017202351405</v>
+        <v>123.4311965199737</v>
       </c>
       <c r="T3">
-        <v>3.299490926462617</v>
+        <v>4.269054431591091</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -3448,22 +3448,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8636814089746928</v>
+        <v>0.614443297239881</v>
       </c>
       <c r="O4">
-        <v>1.238882700037178</v>
+        <v>1.100000023852325</v>
       </c>
       <c r="P4">
-        <v>1.155063378969247</v>
+        <v>1.019342441060879</v>
       </c>
       <c r="Q4">
-        <v>33.11077572682805</v>
+        <v>23.93807817967972</v>
       </c>
       <c r="R4">
-        <v>-83.1424111456671</v>
+        <v>-89.99999999999774</v>
       </c>
       <c r="S4">
-        <v>138.9713508186126</v>
+        <v>123.4311965210633</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3510,22 +3510,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8887625491209004</v>
+        <v>0.6144432972448579</v>
       </c>
       <c r="O5">
-        <v>1.264374557428348</v>
+        <v>1.100000023852325</v>
       </c>
       <c r="P5">
-        <v>1.177628293815078</v>
+        <v>1.019342441052391</v>
       </c>
       <c r="Q5">
-        <v>33.5861967897239</v>
+        <v>23.93807818055967</v>
       </c>
       <c r="R5">
-        <v>-82.88312346644733</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S5">
-        <v>139.6170238306254</v>
+        <v>123.4311965214265</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8887625491209004</v>
+        <v>0.6144432972448579</v>
       </c>
       <c r="O6">
-        <v>1.264374557428348</v>
+        <v>1.100000023852325</v>
       </c>
       <c r="P6">
-        <v>1.177628293815078</v>
+        <v>1.019342441052391</v>
       </c>
       <c r="Q6">
-        <v>33.5861967897239</v>
+        <v>23.93807818055967</v>
       </c>
       <c r="R6">
-        <v>-82.88312346644733</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S6">
-        <v>139.6170238306254</v>
+        <v>123.4311965214265</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.045798675903197</v>
+        <v>1.006400165160399</v>
       </c>
       <c r="O2">
-        <v>1.116935782489237</v>
+        <v>1.100000023846833</v>
       </c>
       <c r="P2">
-        <v>1.095579283531372</v>
+        <v>1.062983180491356</v>
       </c>
       <c r="Q2">
-        <v>30.46508655359094</v>
+        <v>29.57860611708429</v>
       </c>
       <c r="R2">
-        <v>-88.7691539809566</v>
+        <v>-89.99999999999638</v>
       </c>
       <c r="S2">
-        <v>147.636935439022</v>
+        <v>145.4251889501103</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3735,7 +3735,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>3.299490926462618</v>
+        <v>4.269054431591091</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>38.09923949163841</v>
+        <v>49.29479450528563</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3753,43 +3753,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8.087653516667034</v>
+        <v>5.549477056495878</v>
       </c>
       <c r="I3">
-        <v>4.690162830537798</v>
+        <v>2.197592797843465</v>
       </c>
       <c r="J3">
-        <v>0.3928146973595497</v>
+        <v>0.1077319053180345</v>
       </c>
       <c r="K3">
-        <v>0.7226227689300018</v>
+        <v>2.308438694642959</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131385</v>
+        <v>0.1077319054132185</v>
       </c>
       <c r="M3">
-        <v>2.308438694642653</v>
+        <v>2.308438694642675</v>
       </c>
       <c r="N3">
-        <v>0.8137140008701833</v>
+        <v>0.6144432972249562</v>
       </c>
       <c r="O3">
-        <v>1.187979997492081</v>
+        <v>1.100000023852325</v>
       </c>
       <c r="P3">
-        <v>1.110400340220074</v>
+        <v>1.019342441086347</v>
       </c>
       <c r="Q3">
-        <v>32.07219281776336</v>
+        <v>23.9380781770396</v>
       </c>
       <c r="R3">
-        <v>-83.694340801929</v>
+        <v>-89.99999999999737</v>
       </c>
       <c r="S3">
-        <v>137.6017202351405</v>
+        <v>123.4311965199737</v>
       </c>
       <c r="T3">
-        <v>3.299490926462617</v>
+        <v>4.269054431591091</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -3833,22 +3833,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8636814089746928</v>
+        <v>0.614443297239881</v>
       </c>
       <c r="O4">
-        <v>1.238882700037178</v>
+        <v>1.100000023852325</v>
       </c>
       <c r="P4">
-        <v>1.155063378969247</v>
+        <v>1.019342441060879</v>
       </c>
       <c r="Q4">
-        <v>33.11077572682805</v>
+        <v>23.93807817967972</v>
       </c>
       <c r="R4">
-        <v>-83.1424111456671</v>
+        <v>-89.99999999999774</v>
       </c>
       <c r="S4">
-        <v>138.9713508186126</v>
+        <v>123.4311965210633</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3895,22 +3895,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8887625491209004</v>
+        <v>0.6144432972448579</v>
       </c>
       <c r="O5">
-        <v>1.264374557428348</v>
+        <v>1.100000023852325</v>
       </c>
       <c r="P5">
-        <v>1.177628293815078</v>
+        <v>1.019342441052391</v>
       </c>
       <c r="Q5">
-        <v>33.5861967897239</v>
+        <v>23.93807818055967</v>
       </c>
       <c r="R5">
-        <v>-82.88312346644733</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S5">
-        <v>139.6170238306254</v>
+        <v>123.4311965214265</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8887625491209004</v>
+        <v>0.6144432972448579</v>
       </c>
       <c r="O6">
-        <v>1.264374557428348</v>
+        <v>1.100000023852325</v>
       </c>
       <c r="P6">
-        <v>1.177628293815078</v>
+        <v>1.019342441052391</v>
       </c>
       <c r="Q6">
-        <v>33.5861967897239</v>
+        <v>23.93807818055967</v>
       </c>
       <c r="R6">
-        <v>-82.88312346644733</v>
+        <v>-89.99999999999791</v>
       </c>
       <c r="S6">
-        <v>139.6170238306254</v>
+        <v>123.4311965214265</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.080995825792523</v>
+        <v>1.072434586115867</v>
       </c>
       <c r="O2">
-        <v>1.106199210215117</v>
+        <v>1.100000023843344</v>
       </c>
       <c r="P2">
-        <v>1.097680622727801</v>
+        <v>1.089822796270588</v>
       </c>
       <c r="Q2">
-        <v>30.19341501044359</v>
+        <v>29.7961857047866</v>
       </c>
       <c r="R2">
-        <v>-89.5725294298725</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.1724190142013</v>
+        <v>148.6442299648718</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4120,7 +4120,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.163463699754111</v>
+        <v>1.265222117290822</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>13.43452160490789</v>
+        <v>14.60952660005049</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4138,43 +4138,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8.087653516667034</v>
+        <v>5.549477056495878</v>
       </c>
       <c r="I3">
-        <v>4.690162830537798</v>
+        <v>2.197592797843465</v>
       </c>
       <c r="J3">
-        <v>0.3928146973595497</v>
+        <v>0.1077319053180345</v>
       </c>
       <c r="K3">
-        <v>0.7226227689300018</v>
+        <v>2.308438694642959</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131385</v>
+        <v>0.1077319054132185</v>
       </c>
       <c r="M3">
-        <v>2.308438694642653</v>
+        <v>2.308438694642675</v>
       </c>
       <c r="N3">
-        <v>0.9993748882761926</v>
+        <v>0.956852538740053</v>
       </c>
       <c r="O3">
-        <v>1.130949895655936</v>
+        <v>1.100000023845068</v>
       </c>
       <c r="P3">
-        <v>1.094862802903063</v>
+        <v>1.061233259727958</v>
       </c>
       <c r="Q3">
-        <v>30.79385262803196</v>
+        <v>28.34202686749199</v>
       </c>
       <c r="R3">
-        <v>-87.71949188132238</v>
+        <v>-89.99999999999667</v>
       </c>
       <c r="S3">
-        <v>145.6087431490239</v>
+        <v>142.5196106427089</v>
       </c>
       <c r="T3">
-        <v>1.163463699754111</v>
+        <v>1.265222117290822</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.017023557713523</v>
+        <v>0.9568525387446287</v>
       </c>
       <c r="O4">
-        <v>1.148726711835895</v>
+        <v>1.100000023845068</v>
       </c>
       <c r="P4">
-        <v>1.111967073738633</v>
+        <v>1.06123325972225</v>
       </c>
       <c r="Q4">
-        <v>31.09286676700609</v>
+        <v>28.3420268679895</v>
       </c>
       <c r="R4">
-        <v>-87.47766974758044</v>
+        <v>-89.99999999999679</v>
       </c>
       <c r="S4">
-        <v>145.9632274368529</v>
+        <v>142.5196106431179</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4280,22 +4280,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.02585801155266</v>
+        <v>0.9568525387461546</v>
       </c>
       <c r="O5">
-        <v>1.157622616657123</v>
+        <v>1.100000023845068</v>
       </c>
       <c r="P5">
-        <v>1.120534804965817</v>
+        <v>1.061233259720348</v>
       </c>
       <c r="Q5">
-        <v>31.23851371993505</v>
+        <v>28.34202686815532</v>
       </c>
       <c r="R5">
-        <v>-87.35954485313906</v>
+        <v>-89.99999999999685</v>
       </c>
       <c r="S5">
-        <v>146.1364080351396</v>
+        <v>142.5196106432543</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.02585801155266</v>
+        <v>0.9568525387461546</v>
       </c>
       <c r="O6">
-        <v>1.157622616657122</v>
+        <v>1.100000023845068</v>
       </c>
       <c r="P6">
-        <v>1.120534804965817</v>
+        <v>1.061233259720348</v>
       </c>
       <c r="Q6">
-        <v>31.23851371993505</v>
+        <v>28.34202686815532</v>
       </c>
       <c r="R6">
-        <v>-87.35954485313906</v>
+        <v>-89.99999999999685</v>
       </c>
       <c r="S6">
-        <v>146.1364080351396</v>
+        <v>142.5196106432543</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4416,10 +4416,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8909260930493287</v>
+        <v>0.8909260930483733</v>
       </c>
       <c r="G2">
-        <v>0.713995696898965</v>
+        <v>0.7139956970177583</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4427,22 +4427,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>15.44302300401258</v>
+        <v>5.496310909000787</v>
       </c>
       <c r="C3">
-        <v>534.9620093080948</v>
+        <v>190.3977949716888</v>
       </c>
       <c r="D3">
-        <v>0.3928146973799873</v>
+        <v>0.1077319053846547</v>
       </c>
       <c r="E3">
-        <v>0.7226227689206017</v>
+        <v>2.308438694642959</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>61.47168303997802</v>
+        <v>87.32801736352476</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4462,10 +4462,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7333333491273745</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>-6.157803613501171E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4485,10 +4485,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023694295</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-6.422808993115684E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4508,10 +4508,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023694295</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-6.422808993115684E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.080995825792523</v>
+        <v>1.072434586115867</v>
       </c>
       <c r="O2">
-        <v>1.106199210215117</v>
+        <v>1.100000023843344</v>
       </c>
       <c r="P2">
-        <v>1.097680622727801</v>
+        <v>1.089822796270588</v>
       </c>
       <c r="Q2">
-        <v>30.19341501044359</v>
+        <v>29.7961857047866</v>
       </c>
       <c r="R2">
-        <v>-89.5725294298725</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.1724190142013</v>
+        <v>148.6442299648718</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4656,7 +4656,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.163463699754111</v>
+        <v>1.265222117290822</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4665,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>13.43452160490789</v>
+        <v>14.60952660005049</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -4674,43 +4674,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8.087653516667034</v>
+        <v>5.549477056495878</v>
       </c>
       <c r="I3">
-        <v>4.690162830537798</v>
+        <v>2.197592797843465</v>
       </c>
       <c r="J3">
-        <v>0.3928146973595497</v>
+        <v>0.1077319053180345</v>
       </c>
       <c r="K3">
-        <v>0.7226227689300018</v>
+        <v>2.308438694642959</v>
       </c>
       <c r="L3">
-        <v>0.1077319054131385</v>
+        <v>0.1077319054132185</v>
       </c>
       <c r="M3">
-        <v>2.308438694642653</v>
+        <v>2.308438694642675</v>
       </c>
       <c r="N3">
-        <v>0.9993748882761926</v>
+        <v>0.956852538740053</v>
       </c>
       <c r="O3">
-        <v>1.130949895655936</v>
+        <v>1.100000023845068</v>
       </c>
       <c r="P3">
-        <v>1.094862802903063</v>
+        <v>1.061233259727958</v>
       </c>
       <c r="Q3">
-        <v>30.79385262803196</v>
+        <v>28.34202686749199</v>
       </c>
       <c r="R3">
-        <v>-87.71949188132238</v>
+        <v>-89.99999999999667</v>
       </c>
       <c r="S3">
-        <v>145.6087431490239</v>
+        <v>142.5196106427089</v>
       </c>
       <c r="T3">
-        <v>1.163463699754111</v>
+        <v>1.265222117290822</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -4754,22 +4754,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.017023557713523</v>
+        <v>0.9568525387446287</v>
       </c>
       <c r="O4">
-        <v>1.148726711835895</v>
+        <v>1.100000023845068</v>
       </c>
       <c r="P4">
-        <v>1.111967073738633</v>
+        <v>1.06123325972225</v>
       </c>
       <c r="Q4">
-        <v>31.09286676700609</v>
+        <v>28.3420268679895</v>
       </c>
       <c r="R4">
-        <v>-87.47766974758044</v>
+        <v>-89.99999999999679</v>
       </c>
       <c r="S4">
-        <v>145.9632274368529</v>
+        <v>142.5196106431179</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4816,22 +4816,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.02585801155266</v>
+        <v>0.9568525387461546</v>
       </c>
       <c r="O5">
-        <v>1.157622616657123</v>
+        <v>1.100000023845068</v>
       </c>
       <c r="P5">
-        <v>1.120534804965817</v>
+        <v>1.061233259720348</v>
       </c>
       <c r="Q5">
-        <v>31.23851371993505</v>
+        <v>28.34202686815532</v>
       </c>
       <c r="R5">
-        <v>-87.35954485313906</v>
+        <v>-89.99999999999685</v>
       </c>
       <c r="S5">
-        <v>146.1364080351396</v>
+        <v>142.5196106432543</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.02585801155266</v>
+        <v>0.9568525387461546</v>
       </c>
       <c r="O6">
-        <v>1.157622616657122</v>
+        <v>1.100000023845068</v>
       </c>
       <c r="P6">
-        <v>1.120534804965817</v>
+        <v>1.061233259720348</v>
       </c>
       <c r="Q6">
-        <v>31.23851371993505</v>
+        <v>28.34202686815532</v>
       </c>
       <c r="R6">
-        <v>-87.35954485313906</v>
+        <v>-89.99999999999685</v>
       </c>
       <c r="S6">
-        <v>146.1364080351396</v>
+        <v>142.5196106432543</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.955426598658132</v>
+        <v>0.93808824098085</v>
       </c>
       <c r="O2">
-        <v>1.004497339564435</v>
+        <v>0.9999999999958459</v>
       </c>
       <c r="P2">
-        <v>0.9997520940811397</v>
+        <v>0.9923448102284133</v>
       </c>
       <c r="Q2">
-        <v>29.85892277300926</v>
+        <v>28.50094802036746</v>
       </c>
       <c r="R2">
-        <v>-88.86105913840356</v>
+        <v>-89.99999999999639</v>
       </c>
       <c r="S2">
-        <v>148.0785960855783</v>
+        <v>146.1769103581508</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5041,7 +5041,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>2.149200854600072</v>
+        <v>2.675869257225819</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>24.81683383891851</v>
+        <v>30.89827671951142</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5059,43 +5059,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>13.20394437273249</v>
+        <v>10.65491498231265</v>
       </c>
       <c r="I3">
-        <v>4.655359409756104</v>
+        <v>2.173959091208053</v>
       </c>
       <c r="J3">
-        <v>0.6750274779017346</v>
+        <v>0.1153518595129096</v>
       </c>
       <c r="K3">
-        <v>0.9252286926019017</v>
+        <v>2.41639754067582</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710509</v>
+        <v>0.1153518594711212</v>
       </c>
       <c r="M3">
-        <v>2.41639754067538</v>
+        <v>2.416397540675402</v>
       </c>
       <c r="N3">
-        <v>0.7855332616765586</v>
+        <v>0.7181269486848423</v>
       </c>
       <c r="O3">
-        <v>1.020426980386551</v>
+        <v>0.999999999998971</v>
       </c>
       <c r="P3">
-        <v>1.017516209309502</v>
+        <v>1.021127642238569</v>
       </c>
       <c r="Q3">
-        <v>28.35356211369369</v>
+        <v>19.2282476408361</v>
       </c>
       <c r="R3">
-        <v>-84.51412599535563</v>
+        <v>-89.99999999999775</v>
       </c>
       <c r="S3">
-        <v>140.8294446113473</v>
+        <v>131.608419096453</v>
       </c>
       <c r="T3">
-        <v>2.149200854600072</v>
+        <v>2.675869257225819</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5139,22 +5139,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8284433909241058</v>
+        <v>0.7181269486975268</v>
       </c>
       <c r="O4">
-        <v>1.065417150259074</v>
+        <v>0.999999999998971</v>
       </c>
       <c r="P4">
-        <v>1.057424344510163</v>
+        <v>1.02112764221727</v>
       </c>
       <c r="Q4">
-        <v>29.77896265333233</v>
+        <v>19.2282476430901</v>
       </c>
       <c r="R4">
-        <v>-83.69923421478116</v>
+        <v>-89.99999999999822</v>
       </c>
       <c r="S4">
-        <v>142.2392251670443</v>
+        <v>131.6084190977144</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5201,22 +5201,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8500761412228359</v>
+        <v>0.7181269487017575</v>
       </c>
       <c r="O5">
-        <v>1.087988035540487</v>
+        <v>0.999999999998971</v>
       </c>
       <c r="P5">
-        <v>1.077605108086765</v>
+        <v>1.021127642210171</v>
       </c>
       <c r="Q5">
-        <v>30.43749701010471</v>
+        <v>19.22824764384137</v>
       </c>
       <c r="R5">
-        <v>-83.31709964024836</v>
+        <v>-89.99999999999845</v>
       </c>
       <c r="S5">
-        <v>142.9047574997626</v>
+        <v>131.6084190981349</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8500761412228359</v>
+        <v>0.7181269487017578</v>
       </c>
       <c r="O6">
-        <v>1.087988035540487</v>
+        <v>0.999999999998971</v>
       </c>
       <c r="P6">
-        <v>1.077605108086765</v>
+        <v>1.021127642210171</v>
       </c>
       <c r="Q6">
-        <v>30.43749701010471</v>
+        <v>19.22824764384137</v>
       </c>
       <c r="R6">
-        <v>-83.31709964024837</v>
+        <v>-89.99999999999847</v>
       </c>
       <c r="S6">
-        <v>142.9047574997626</v>
+        <v>131.6084190981349</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.955426598658132</v>
+        <v>0.93808824098085</v>
       </c>
       <c r="O2">
-        <v>1.004497339564435</v>
+        <v>0.9999999999958459</v>
       </c>
       <c r="P2">
-        <v>0.9997520940811397</v>
+        <v>0.9923448102284133</v>
       </c>
       <c r="Q2">
-        <v>29.85892277300926</v>
+        <v>28.50094802036746</v>
       </c>
       <c r="R2">
-        <v>-88.86105913840356</v>
+        <v>-89.99999999999639</v>
       </c>
       <c r="S2">
-        <v>148.0785960855783</v>
+        <v>146.1769103581508</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5426,7 +5426,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>2.149200854600072</v>
+        <v>2.675869257225819</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>24.81683383891851</v>
+        <v>30.89827671951142</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5444,43 +5444,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>13.20394437273249</v>
+        <v>10.65491498231265</v>
       </c>
       <c r="I3">
-        <v>4.655359409756104</v>
+        <v>2.173959091208053</v>
       </c>
       <c r="J3">
-        <v>0.6750274779017346</v>
+        <v>0.1153518595129096</v>
       </c>
       <c r="K3">
-        <v>0.9252286926019017</v>
+        <v>2.41639754067582</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710509</v>
+        <v>0.1153518594711212</v>
       </c>
       <c r="M3">
-        <v>2.41639754067538</v>
+        <v>2.416397540675402</v>
       </c>
       <c r="N3">
-        <v>0.7855332616765586</v>
+        <v>0.7181269486848423</v>
       </c>
       <c r="O3">
-        <v>1.020426980386551</v>
+        <v>0.999999999998971</v>
       </c>
       <c r="P3">
-        <v>1.017516209309502</v>
+        <v>1.021127642238569</v>
       </c>
       <c r="Q3">
-        <v>28.35356211369369</v>
+        <v>19.2282476408361</v>
       </c>
       <c r="R3">
-        <v>-84.51412599535563</v>
+        <v>-89.99999999999775</v>
       </c>
       <c r="S3">
-        <v>140.8294446113473</v>
+        <v>131.608419096453</v>
       </c>
       <c r="T3">
-        <v>2.149200854600072</v>
+        <v>2.675869257225819</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5524,22 +5524,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8284433909241058</v>
+        <v>0.7181269486975268</v>
       </c>
       <c r="O4">
-        <v>1.065417150259074</v>
+        <v>0.999999999998971</v>
       </c>
       <c r="P4">
-        <v>1.057424344510163</v>
+        <v>1.02112764221727</v>
       </c>
       <c r="Q4">
-        <v>29.77896265333233</v>
+        <v>19.2282476430901</v>
       </c>
       <c r="R4">
-        <v>-83.69923421478116</v>
+        <v>-89.99999999999822</v>
       </c>
       <c r="S4">
-        <v>142.2392251670443</v>
+        <v>131.6084190977144</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5586,22 +5586,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8500761412228359</v>
+        <v>0.7181269487017575</v>
       </c>
       <c r="O5">
-        <v>1.087988035540487</v>
+        <v>0.999999999998971</v>
       </c>
       <c r="P5">
-        <v>1.077605108086765</v>
+        <v>1.021127642210171</v>
       </c>
       <c r="Q5">
-        <v>30.43749701010471</v>
+        <v>19.22824764384137</v>
       </c>
       <c r="R5">
-        <v>-83.31709964024836</v>
+        <v>-89.99999999999845</v>
       </c>
       <c r="S5">
-        <v>142.9047574997626</v>
+        <v>131.6084190981349</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8500761412228359</v>
+        <v>0.7181269487017578</v>
       </c>
       <c r="O6">
-        <v>1.087988035540487</v>
+        <v>0.999999999998971</v>
       </c>
       <c r="P6">
-        <v>1.077605108086765</v>
+        <v>1.021127642210171</v>
       </c>
       <c r="Q6">
-        <v>30.43749701010471</v>
+        <v>19.22824764384137</v>
       </c>
       <c r="R6">
-        <v>-83.31709964024837</v>
+        <v>-89.99999999999847</v>
       </c>
       <c r="S6">
-        <v>142.9047574997626</v>
+        <v>131.6084190981349</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.980654676660224</v>
+        <v>0.9752784142044824</v>
       </c>
       <c r="O2">
-        <v>1.003196895884724</v>
+        <v>0.9999999999985698</v>
       </c>
       <c r="P2">
-        <v>0.9975530514337378</v>
+        <v>0.9932418816976996</v>
       </c>
       <c r="Q2">
-        <v>30.11189648778015</v>
+        <v>29.63976589252149</v>
       </c>
       <c r="R2">
-        <v>-89.52513914871317</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.174083994551</v>
+        <v>148.5870138120459</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5811,7 +5811,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.936061765028665</v>
+        <v>1.019575804880166</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.80871024034832</v>
+        <v>11.77304730813587</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5829,43 +5829,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>13.20394437273249</v>
+        <v>10.65491498231265</v>
       </c>
       <c r="I3">
-        <v>4.655359409756104</v>
+        <v>2.173959091208053</v>
       </c>
       <c r="J3">
-        <v>0.6750274779017346</v>
+        <v>0.1153518595129096</v>
       </c>
       <c r="K3">
-        <v>0.9252286926019017</v>
+        <v>2.41639754067582</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710509</v>
+        <v>0.1153518594711212</v>
       </c>
       <c r="M3">
-        <v>2.41639754067538</v>
+        <v>2.416397540675402</v>
       </c>
       <c r="N3">
-        <v>0.906048185415729</v>
+        <v>0.8827270761415116</v>
       </c>
       <c r="O3">
-        <v>1.014018519858552</v>
+        <v>0.9999999999998316</v>
       </c>
       <c r="P3">
-        <v>0.9937667271363001</v>
+        <v>0.9794355975913516</v>
       </c>
       <c r="Q3">
-        <v>30.27769522116504</v>
+        <v>27.67272062331513</v>
       </c>
       <c r="R3">
-        <v>-87.68455623456359</v>
+        <v>-89.99999999999682</v>
       </c>
       <c r="S3">
-        <v>145.9539805664837</v>
+        <v>142.9557126455962</v>
       </c>
       <c r="T3">
-        <v>0.9360617650286651</v>
+        <v>1.019575804880166</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -5909,22 +5909,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9259752582465335</v>
+        <v>0.8827270761491318</v>
       </c>
       <c r="O4">
-        <v>1.034120088043352</v>
+        <v>0.9999999999998315</v>
       </c>
       <c r="P4">
-        <v>1.013237255492521</v>
+        <v>0.9794355975864569</v>
       </c>
       <c r="Q4">
-        <v>30.61217335631944</v>
+        <v>27.67272062389995</v>
       </c>
       <c r="R4">
-        <v>-87.42447413506507</v>
+        <v>-89.99999999999699</v>
       </c>
       <c r="S4">
-        <v>146.3436695371077</v>
+        <v>142.9557126462243</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5971,22 +5971,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9359502503390604</v>
+        <v>0.8827270761516727</v>
       </c>
       <c r="O5">
-        <v>1.044178631923855</v>
+        <v>0.9999999999998315</v>
       </c>
       <c r="P5">
-        <v>1.022989594193846</v>
+        <v>0.9794355975848257</v>
       </c>
       <c r="Q5">
-        <v>30.77406870771084</v>
+        <v>27.67272062409485</v>
       </c>
       <c r="R5">
-        <v>-87.29818952941702</v>
+        <v>-89.99999999999707</v>
       </c>
       <c r="S5">
-        <v>146.5329469519288</v>
+        <v>142.9557126464337</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9359502503390607</v>
+        <v>0.8827270761516727</v>
       </c>
       <c r="O6">
-        <v>1.044178631923855</v>
+        <v>0.9999999999998315</v>
       </c>
       <c r="P6">
-        <v>1.022989594193846</v>
+        <v>0.9794355975848256</v>
       </c>
       <c r="Q6">
-        <v>30.77406870771084</v>
+        <v>27.67272062409485</v>
       </c>
       <c r="R6">
-        <v>-87.29818952941702</v>
+        <v>-89.99999999999707</v>
       </c>
       <c r="S6">
-        <v>146.5329469519288</v>
+        <v>142.9557126464337</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.980654676660224</v>
+        <v>0.9752784142044824</v>
       </c>
       <c r="O2">
-        <v>1.003196895884724</v>
+        <v>0.9999999999985698</v>
       </c>
       <c r="P2">
-        <v>0.9975530514337378</v>
+        <v>0.9932418816976996</v>
       </c>
       <c r="Q2">
-        <v>30.11189648778015</v>
+        <v>29.63976589252149</v>
       </c>
       <c r="R2">
-        <v>-89.52513914871317</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>149.174083994551</v>
+        <v>148.5870138120459</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6196,7 +6196,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.936061765028665</v>
+        <v>1.019575804880166</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -6205,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.80871024034832</v>
+        <v>11.77304730813587</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -6214,43 +6214,43 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>13.20394437273249</v>
+        <v>10.65491498231265</v>
       </c>
       <c r="I3">
-        <v>4.655359409756104</v>
+        <v>2.173959091208053</v>
       </c>
       <c r="J3">
-        <v>0.6750274779017346</v>
+        <v>0.1153518595129096</v>
       </c>
       <c r="K3">
-        <v>0.9252286926019017</v>
+        <v>2.41639754067582</v>
       </c>
       <c r="L3">
-        <v>0.1153518594710509</v>
+        <v>0.1153518594711212</v>
       </c>
       <c r="M3">
-        <v>2.41639754067538</v>
+        <v>2.416397540675402</v>
       </c>
       <c r="N3">
-        <v>0.906048185415729</v>
+        <v>0.8827270761415116</v>
       </c>
       <c r="O3">
-        <v>1.014018519858552</v>
+        <v>0.9999999999998316</v>
       </c>
       <c r="P3">
-        <v>0.9937667271363001</v>
+        <v>0.9794355975913516</v>
       </c>
       <c r="Q3">
-        <v>30.27769522116504</v>
+        <v>27.67272062331513</v>
       </c>
       <c r="R3">
-        <v>-87.68455623456359</v>
+        <v>-89.99999999999682</v>
       </c>
       <c r="S3">
-        <v>145.9539805664837</v>
+        <v>142.9557126455962</v>
       </c>
       <c r="T3">
-        <v>0.9360617650286651</v>
+        <v>1.019575804880166</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -6294,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9259752582465335</v>
+        <v>0.8827270761491318</v>
       </c>
       <c r="O4">
-        <v>1.034120088043352</v>
+        <v>0.9999999999998315</v>
       </c>
       <c r="P4">
-        <v>1.013237255492521</v>
+        <v>0.9794355975864569</v>
       </c>
       <c r="Q4">
-        <v>30.61217335631944</v>
+        <v>27.67272062389995</v>
       </c>
       <c r="R4">
-        <v>-87.42447413506507</v>
+        <v>-89.99999999999699</v>
       </c>
       <c r="S4">
-        <v>146.3436695371077</v>
+        <v>142.9557126462243</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6356,22 +6356,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9359502503390604</v>
+        <v>0.8827270761516727</v>
       </c>
       <c r="O5">
-        <v>1.044178631923855</v>
+        <v>0.9999999999998315</v>
       </c>
       <c r="P5">
-        <v>1.022989594193846</v>
+        <v>0.9794355975848257</v>
       </c>
       <c r="Q5">
-        <v>30.77406870771084</v>
+        <v>27.67272062409485</v>
       </c>
       <c r="R5">
-        <v>-87.29818952941702</v>
+        <v>-89.99999999999707</v>
       </c>
       <c r="S5">
-        <v>146.5329469519288</v>
+        <v>142.9557126464337</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9359502503390607</v>
+        <v>0.8827270761516727</v>
       </c>
       <c r="O6">
-        <v>1.044178631923855</v>
+        <v>0.9999999999998315</v>
       </c>
       <c r="P6">
-        <v>1.022989594193846</v>
+        <v>0.9794355975848256</v>
       </c>
       <c r="Q6">
-        <v>30.77406870771084</v>
+        <v>27.67272062409485</v>
       </c>
       <c r="R6">
-        <v>-87.29818952941702</v>
+        <v>-89.99999999999707</v>
       </c>
       <c r="S6">
-        <v>146.5329469519288</v>
+        <v>142.9557126464337</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.124173959688761</v>
+        <v>1.01842373929984</v>
       </c>
       <c r="O2">
-        <v>0.8909260930498289</v>
+        <v>0.8909260930534472</v>
       </c>
       <c r="P2">
-        <v>1.121548384016185</v>
+        <v>1.050632341056126</v>
       </c>
       <c r="Q2">
-        <v>24.24227714452232</v>
+        <v>24.33474940422531</v>
       </c>
       <c r="R2">
-        <v>-89.28600430312464</v>
+        <v>-89.2860043031224</v>
       </c>
       <c r="S2">
-        <v>157.4957060244098</v>
+        <v>153.3531572010471</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6584,58 +6584,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.481056665388634</v>
+        <v>6.029934716893444</v>
       </c>
       <c r="D3">
-        <v>6.215014802163658</v>
+        <v>3.634748069092455</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>97.93080697549196</v>
+        <v>69.627688639886</v>
       </c>
       <c r="G3">
-        <v>71.76480938093394</v>
+        <v>41.97045552254002</v>
       </c>
       <c r="H3">
-        <v>8.087653516667004</v>
+        <v>5.549477056495876</v>
       </c>
       <c r="I3">
-        <v>4.690162830537893</v>
+        <v>2.197592797843661</v>
       </c>
       <c r="J3">
-        <v>0.3928146973851533</v>
+        <v>0.1077319054063102</v>
       </c>
       <c r="K3">
-        <v>0.7226227689270468</v>
+        <v>2.308438694631066</v>
       </c>
       <c r="L3">
-        <v>0.107731905413396</v>
+        <v>0.1077319054133287</v>
       </c>
       <c r="M3">
-        <v>2.308438694642998</v>
+        <v>2.308438694642942</v>
       </c>
       <c r="N3">
-        <v>1.361203664130251</v>
+        <v>0.8708416185467565</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1.361203664132871</v>
+        <v>0.8708416185493206</v>
       </c>
       <c r="Q3">
-        <v>4.484180460461736</v>
+        <v>-9.283488353327451</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-175.5158195395134</v>
+        <v>170.7165116466594</v>
       </c>
       <c r="T3">
-        <v>2.911910972635212</v>
+        <v>2.917997876526143</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -6679,22 +6679,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.57020411580427</v>
+        <v>0.8708416185120124</v>
       </c>
       <c r="O4">
-        <v>0.2149487899812338</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.519688203915879</v>
+        <v>0.8708416185750353</v>
       </c>
       <c r="Q4">
-        <v>6.452334716204742</v>
+        <v>-9.283488351423932</v>
       </c>
       <c r="R4">
-        <v>-100.9860169480608</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>178.6970699353722</v>
+        <v>170.7165116460671</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6741,22 +6741,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.67526892678466</v>
+        <v>0.8708416185004291</v>
       </c>
       <c r="O5">
-        <v>0.3224231849679178</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.603868100809182</v>
+        <v>0.8708416185836059</v>
       </c>
       <c r="Q5">
-        <v>7.25179408028703</v>
+        <v>-9.283488350789442</v>
       </c>
       <c r="R5">
-        <v>-100.9860169497885</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>176.2447328514</v>
+        <v>170.7165116458697</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.67526892678466</v>
+        <v>0.8708416185004291</v>
       </c>
       <c r="O6">
-        <v>0.3224231849679179</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.603868100809182</v>
+        <v>0.8708416185836058</v>
       </c>
       <c r="Q6">
-        <v>7.251794080287033</v>
+        <v>-9.283488350789437</v>
       </c>
       <c r="R6">
-        <v>-100.9860169497885</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>176.2447328514</v>
+        <v>170.7165116458697</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.124173959688761</v>
+        <v>1.01842373929984</v>
       </c>
       <c r="O2">
-        <v>0.8909260930498289</v>
+        <v>0.8909260930534472</v>
       </c>
       <c r="P2">
-        <v>1.121548384016185</v>
+        <v>1.050632341056126</v>
       </c>
       <c r="Q2">
-        <v>24.24227714452232</v>
+        <v>24.33474940422531</v>
       </c>
       <c r="R2">
-        <v>-89.28600430312464</v>
+        <v>-89.2860043031224</v>
       </c>
       <c r="S2">
-        <v>157.4957060244098</v>
+        <v>153.3531572010471</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6969,58 +6969,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.481056665388634</v>
+        <v>6.029934716893444</v>
       </c>
       <c r="D3">
-        <v>6.215014802163658</v>
+        <v>3.634748069092455</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>97.93080697549196</v>
+        <v>69.627688639886</v>
       </c>
       <c r="G3">
-        <v>71.76480938093394</v>
+        <v>41.97045552254002</v>
       </c>
       <c r="H3">
-        <v>8.087653516667004</v>
+        <v>5.549477056495876</v>
       </c>
       <c r="I3">
-        <v>4.690162830537893</v>
+        <v>2.197592797843661</v>
       </c>
       <c r="J3">
-        <v>0.3928146973851533</v>
+        <v>0.1077319054063102</v>
       </c>
       <c r="K3">
-        <v>0.7226227689270468</v>
+        <v>2.308438694631066</v>
       </c>
       <c r="L3">
-        <v>0.107731905413396</v>
+        <v>0.1077319054133287</v>
       </c>
       <c r="M3">
-        <v>2.308438694642998</v>
+        <v>2.308438694642942</v>
       </c>
       <c r="N3">
-        <v>1.361203664130251</v>
+        <v>0.8708416185467565</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1.361203664132871</v>
+        <v>0.8708416185493206</v>
       </c>
       <c r="Q3">
-        <v>4.484180460461736</v>
+        <v>-9.283488353327451</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-175.5158195395134</v>
+        <v>170.7165116466594</v>
       </c>
       <c r="T3">
-        <v>2.911910972635212</v>
+        <v>2.917997876526143</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7064,22 +7064,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.57020411580427</v>
+        <v>0.8708416185120124</v>
       </c>
       <c r="O4">
-        <v>0.2149487899812338</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.519688203915879</v>
+        <v>0.8708416185750353</v>
       </c>
       <c r="Q4">
-        <v>6.452334716204742</v>
+        <v>-9.283488351423932</v>
       </c>
       <c r="R4">
-        <v>-100.9860169480608</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>178.6970699353722</v>
+        <v>170.7165116460671</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7126,22 +7126,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.67526892678466</v>
+        <v>0.8708416185004291</v>
       </c>
       <c r="O5">
-        <v>0.3224231849679178</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.603868100809182</v>
+        <v>0.8708416185836059</v>
       </c>
       <c r="Q5">
-        <v>7.25179408028703</v>
+        <v>-9.283488350789442</v>
       </c>
       <c r="R5">
-        <v>-100.9860169497885</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>176.2447328514</v>
+        <v>170.7165116458697</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.67526892678466</v>
+        <v>0.8708416185004291</v>
       </c>
       <c r="O6">
-        <v>0.3224231849679179</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.603868100809182</v>
+        <v>0.8708416185836058</v>
       </c>
       <c r="Q6">
-        <v>7.251794080287033</v>
+        <v>-9.283488350789437</v>
       </c>
       <c r="R6">
-        <v>-100.9860169497885</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>176.2447328514</v>
+        <v>170.7165116458697</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.107811751719646</v>
+        <v>1.088142600877449</v>
       </c>
       <c r="O2">
-        <v>1.067778959680045</v>
+        <v>1.052967690033747</v>
       </c>
       <c r="P2">
-        <v>1.087733319145493</v>
+        <v>1.073420542971326</v>
       </c>
       <c r="Q2">
-        <v>29.28356225684911</v>
+        <v>28.40667986457017</v>
       </c>
       <c r="R2">
-        <v>-90.75383204366845</v>
+        <v>-91.44286082238048</v>
       </c>
       <c r="S2">
-        <v>151.0917117560892</v>
+        <v>150.106877722634</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7354,58 +7354,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.530064313101893</v>
+        <v>1.484195649880106</v>
       </c>
       <c r="D3">
-        <v>1.294378717364985</v>
+        <v>1.211666286235112</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17.66766086093635</v>
+        <v>17.13801515976701</v>
       </c>
       <c r="G3">
-        <v>14.94619801807994</v>
+        <v>13.99111713051673</v>
       </c>
       <c r="H3">
-        <v>8.087653516667004</v>
+        <v>5.549477056495876</v>
       </c>
       <c r="I3">
-        <v>4.690162830537893</v>
+        <v>2.197592797843661</v>
       </c>
       <c r="J3">
-        <v>0.3928146973851533</v>
+        <v>0.1077319054063102</v>
       </c>
       <c r="K3">
-        <v>0.7226227689270468</v>
+        <v>2.308438694631066</v>
       </c>
       <c r="L3">
-        <v>0.107731905413396</v>
+        <v>0.1077319054133287</v>
       </c>
       <c r="M3">
-        <v>2.308438694642998</v>
+        <v>2.308438694642942</v>
       </c>
       <c r="N3">
-        <v>1.146542632990317</v>
+        <v>1.056537320427519</v>
       </c>
       <c r="O3">
-        <v>0.9380845308668251</v>
+        <v>0.8723446855807018</v>
       </c>
       <c r="P3">
-        <v>1.034225247103678</v>
+        <v>0.9600343016410947</v>
       </c>
       <c r="Q3">
-        <v>26.47472588352871</v>
+        <v>21.17428113068095</v>
       </c>
       <c r="R3">
-        <v>-95.05620529999042</v>
+        <v>-100.0510163396145</v>
       </c>
       <c r="S3">
-        <v>155.8395164054241</v>
+        <v>150.1850824569241</v>
       </c>
       <c r="T3">
-        <v>0.9964965810132766</v>
+        <v>1.119849020604905</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7449,22 +7449,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.188621519419401</v>
+        <v>1.056537320420606</v>
       </c>
       <c r="O4">
-        <v>0.9798255995469782</v>
+        <v>0.8723446855803992</v>
       </c>
       <c r="P4">
-        <v>1.077846702033959</v>
+        <v>0.9600343016472701</v>
       </c>
       <c r="Q4">
-        <v>27.11409812155193</v>
+        <v>21.17428113115401</v>
       </c>
       <c r="R4">
-        <v>-94.21522596953223</v>
+        <v>-100.0510163383996</v>
       </c>
       <c r="S4">
-        <v>156.1718564468748</v>
+        <v>150.1850824573215</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7511,22 +7511,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.209713570385772</v>
+        <v>1.056537320418302</v>
       </c>
       <c r="O5">
-        <v>1.000770336855867</v>
+        <v>0.8723446855802981</v>
       </c>
       <c r="P5">
-        <v>1.09967021925579</v>
+        <v>0.9600343016493282</v>
       </c>
       <c r="Q5">
-        <v>27.41708543585248</v>
+        <v>21.17428113131171</v>
       </c>
       <c r="R5">
-        <v>-93.82108579243759</v>
+        <v>-100.0510163379946</v>
       </c>
       <c r="S5">
-        <v>156.3281364635447</v>
+        <v>150.1850824574539</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.209713570385772</v>
+        <v>1.056537320418302</v>
       </c>
       <c r="O6">
-        <v>1.000770336855867</v>
+        <v>0.8723446855802981</v>
       </c>
       <c r="P6">
-        <v>1.09967021925579</v>
+        <v>0.9600343016493282</v>
       </c>
       <c r="Q6">
-        <v>27.41708543585248</v>
+        <v>21.17428113131172</v>
       </c>
       <c r="R6">
-        <v>-93.82108579243759</v>
+        <v>-100.0510163379946</v>
       </c>
       <c r="S6">
-        <v>156.3281364635447</v>
+        <v>150.1850824574539</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.107811751719646</v>
+        <v>1.088142600877449</v>
       </c>
       <c r="O2">
-        <v>1.067778959680045</v>
+        <v>1.052967690033747</v>
       </c>
       <c r="P2">
-        <v>1.087733319145493</v>
+        <v>1.073420542971326</v>
       </c>
       <c r="Q2">
-        <v>29.28356225684911</v>
+        <v>28.40667986457017</v>
       </c>
       <c r="R2">
-        <v>-90.75383204366845</v>
+        <v>-91.44286082238048</v>
       </c>
       <c r="S2">
-        <v>151.0917117560892</v>
+        <v>150.106877722634</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7739,58 +7739,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.530064313101893</v>
+        <v>1.484195649880106</v>
       </c>
       <c r="D3">
-        <v>1.294378717364985</v>
+        <v>1.211666286235112</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17.66766086093635</v>
+        <v>17.13801515976701</v>
       </c>
       <c r="G3">
-        <v>14.94619801807994</v>
+        <v>13.99111713051673</v>
       </c>
       <c r="H3">
-        <v>8.087653516667004</v>
+        <v>5.549477056495876</v>
       </c>
       <c r="I3">
-        <v>4.690162830537893</v>
+        <v>2.197592797843661</v>
       </c>
       <c r="J3">
-        <v>0.3928146973851533</v>
+        <v>0.1077319054063102</v>
       </c>
       <c r="K3">
-        <v>0.7226227689270468</v>
+        <v>2.308438694631066</v>
       </c>
       <c r="L3">
-        <v>0.107731905413396</v>
+        <v>0.1077319054133287</v>
       </c>
       <c r="M3">
-        <v>2.308438694642998</v>
+        <v>2.308438694642942</v>
       </c>
       <c r="N3">
-        <v>1.146542632990317</v>
+        <v>1.056537320427519</v>
       </c>
       <c r="O3">
-        <v>0.9380845308668251</v>
+        <v>0.8723446855807018</v>
       </c>
       <c r="P3">
-        <v>1.034225247103678</v>
+        <v>0.9600343016410947</v>
       </c>
       <c r="Q3">
-        <v>26.47472588352871</v>
+        <v>21.17428113068095</v>
       </c>
       <c r="R3">
-        <v>-95.05620529999042</v>
+        <v>-100.0510163396145</v>
       </c>
       <c r="S3">
-        <v>155.8395164054241</v>
+        <v>150.1850824569241</v>
       </c>
       <c r="T3">
-        <v>0.9964965810132766</v>
+        <v>1.119849020604905</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -7834,22 +7834,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.188621519419401</v>
+        <v>1.056537320420606</v>
       </c>
       <c r="O4">
-        <v>0.9798255995469782</v>
+        <v>0.8723446855803992</v>
       </c>
       <c r="P4">
-        <v>1.077846702033959</v>
+        <v>0.9600343016472701</v>
       </c>
       <c r="Q4">
-        <v>27.11409812155193</v>
+        <v>21.17428113115401</v>
       </c>
       <c r="R4">
-        <v>-94.21522596953223</v>
+        <v>-100.0510163383996</v>
       </c>
       <c r="S4">
-        <v>156.1718564468748</v>
+        <v>150.1850824573215</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7896,22 +7896,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.209713570385772</v>
+        <v>1.056537320418302</v>
       </c>
       <c r="O5">
-        <v>1.000770336855867</v>
+        <v>0.8723446855802981</v>
       </c>
       <c r="P5">
-        <v>1.09967021925579</v>
+        <v>0.9600343016493282</v>
       </c>
       <c r="Q5">
-        <v>27.41708543585248</v>
+        <v>21.17428113131171</v>
       </c>
       <c r="R5">
-        <v>-93.82108579243759</v>
+        <v>-100.0510163379946</v>
       </c>
       <c r="S5">
-        <v>156.3281364635447</v>
+        <v>150.1850824574539</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.209713570385772</v>
+        <v>1.056537320418302</v>
       </c>
       <c r="O6">
-        <v>1.000770336855867</v>
+        <v>0.8723446855802981</v>
       </c>
       <c r="P6">
-        <v>1.09967021925579</v>
+        <v>0.9600343016493282</v>
       </c>
       <c r="Q6">
-        <v>27.41708543585248</v>
+        <v>21.17428113131172</v>
       </c>
       <c r="R6">
-        <v>-93.82108579243759</v>
+        <v>-100.0510163379946</v>
       </c>
       <c r="S6">
-        <v>156.3281364635447</v>
+        <v>150.1850824574539</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.017692342262961</v>
+        <v>0.9334935060169504</v>
       </c>
       <c r="O2">
-        <v>0.7936674232772771</v>
+        <v>0.7936674232727595</v>
       </c>
       <c r="P2">
-        <v>1.002506895883316</v>
+        <v>0.9580977882541356</v>
       </c>
       <c r="Q2">
-        <v>24.91241948921637</v>
+        <v>23.95979098161584</v>
       </c>
       <c r="R2">
-        <v>-89.2249262389855</v>
+        <v>-89.22492623897499</v>
       </c>
       <c r="S2">
-        <v>158.6541122085075</v>
+        <v>154.3650519625827</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8124,58 +8124,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.550761551062128</v>
+        <v>4.864249469156538</v>
       </c>
       <c r="D3">
-        <v>5.05725711353908</v>
+        <v>3.420873634629109</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>75.6416788980554</v>
+        <v>56.16751480846042</v>
       </c>
       <c r="G3">
-        <v>58.39617511725876</v>
+        <v>39.50084627633619</v>
       </c>
       <c r="H3">
-        <v>13.20394437273244</v>
+        <v>10.65491498231264</v>
       </c>
       <c r="I3">
-        <v>4.655359409756196</v>
+        <v>2.173959091208256</v>
       </c>
       <c r="J3">
-        <v>0.6750274779031088</v>
+        <v>0.1153518594840182</v>
       </c>
       <c r="K3">
-        <v>0.9252286926315889</v>
+        <v>2.416397540698256</v>
       </c>
       <c r="L3">
-        <v>0.115351859471422</v>
+        <v>0.1153518594713441</v>
       </c>
       <c r="M3">
-        <v>2.416397540675931</v>
+        <v>2.41639754067588</v>
       </c>
       <c r="N3">
-        <v>1.171592189724511</v>
+        <v>0.838320383102353</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1.171592189723578</v>
+        <v>0.8383203831022643</v>
       </c>
       <c r="Q3">
-        <v>8.330378851466168</v>
+        <v>-5.989874420578551</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-171.6696211486632</v>
+        <v>174.0101255793317</v>
       </c>
       <c r="T3">
-        <v>1.673632605547273</v>
+        <v>1.541818903287516</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.400766685784638</v>
+        <v>0.8383203830713342</v>
       </c>
       <c r="O4">
-        <v>0.2299548420569274</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.317507354909119</v>
+        <v>0.838320383128255</v>
       </c>
       <c r="Q4">
-        <v>9.176956004162319</v>
+        <v>-5.989874417367652</v>
       </c>
       <c r="R4">
-        <v>-106.5059085923763</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.8729458908539</v>
+        <v>174.010125577291</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8281,22 +8281,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.515442593609415</v>
+        <v>0.8383203830609927</v>
       </c>
       <c r="O5">
-        <v>0.3449322630762265</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.398958090111344</v>
+        <v>0.8383203831369177</v>
       </c>
       <c r="Q5">
-        <v>9.504191257806257</v>
+        <v>-5.989874416297368</v>
       </c>
       <c r="R5">
-        <v>-106.5059085940334</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>176.7016988889909</v>
+        <v>174.0101255766108</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.515442593609416</v>
+        <v>0.8383203830609928</v>
       </c>
       <c r="O6">
-        <v>0.3449322630762269</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.398958090111344</v>
+        <v>0.8383203831369177</v>
       </c>
       <c r="Q6">
-        <v>9.50419125780626</v>
+        <v>-5.989874416297356</v>
       </c>
       <c r="R6">
-        <v>-106.5059085940334</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>176.7016988889909</v>
+        <v>174.0101255766108</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8417,10 +8417,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.078560055256107</v>
+        <v>1.052967690033817</v>
       </c>
       <c r="G2">
-        <v>-0.2366615503256251</v>
+        <v>-1.442860822386479</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8428,22 +8428,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.615323135457774</v>
+        <v>1.424532906338662</v>
       </c>
       <c r="C3">
-        <v>55.95643482508657</v>
+        <v>49.34726741664637</v>
       </c>
       <c r="D3">
-        <v>0.3928146973799873</v>
+        <v>0.1077319053846547</v>
       </c>
       <c r="E3">
-        <v>0.7226227689206017</v>
+        <v>2.308438694642959</v>
       </c>
       <c r="F3">
-        <v>0.9891793628950201</v>
+        <v>0.872344685579278</v>
       </c>
       <c r="G3">
-        <v>45.00000000001764</v>
+        <v>45.00000000014265</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8463,10 +8463,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.062959741151375</v>
+        <v>0.8723446855789757</v>
       </c>
       <c r="G4">
-        <v>-0.52711984668414</v>
+        <v>-10.05101633843851</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8486,10 +8486,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023830402</v>
+        <v>0.8723446855788749</v>
       </c>
       <c r="G5">
-        <v>-8.439701576506097E-10</v>
+        <v>-10.05101633803358</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8509,10 +8509,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023830402</v>
+        <v>0.8723446855788749</v>
       </c>
       <c r="G6">
-        <v>-8.439701576506091E-10</v>
+        <v>-10.05101633803358</v>
       </c>
     </row>
   </sheetData>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.017692342262961</v>
+        <v>0.9334935060169504</v>
       </c>
       <c r="O2">
-        <v>0.7936674232772771</v>
+        <v>0.7936674232727595</v>
       </c>
       <c r="P2">
-        <v>1.002506895883316</v>
+        <v>0.9580977882541356</v>
       </c>
       <c r="Q2">
-        <v>24.91241948921637</v>
+        <v>23.95979098161584</v>
       </c>
       <c r="R2">
-        <v>-89.2249262389855</v>
+        <v>-89.22492623897499</v>
       </c>
       <c r="S2">
-        <v>158.6541122085075</v>
+        <v>154.3650519625827</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8660,58 +8660,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.550761551062128</v>
+        <v>4.864249469156538</v>
       </c>
       <c r="D3">
-        <v>5.05725711353908</v>
+        <v>3.420873634629109</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>75.6416788980554</v>
+        <v>56.16751480846042</v>
       </c>
       <c r="G3">
-        <v>58.39617511725876</v>
+        <v>39.50084627633619</v>
       </c>
       <c r="H3">
-        <v>13.20394437273244</v>
+        <v>10.65491498231264</v>
       </c>
       <c r="I3">
-        <v>4.655359409756196</v>
+        <v>2.173959091208256</v>
       </c>
       <c r="J3">
-        <v>0.6750274779031088</v>
+        <v>0.1153518594840182</v>
       </c>
       <c r="K3">
-        <v>0.9252286926315889</v>
+        <v>2.416397540698256</v>
       </c>
       <c r="L3">
-        <v>0.115351859471422</v>
+        <v>0.1153518594713441</v>
       </c>
       <c r="M3">
-        <v>2.416397540675931</v>
+        <v>2.41639754067588</v>
       </c>
       <c r="N3">
-        <v>1.171592189724511</v>
+        <v>0.838320383102353</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1.171592189723578</v>
+        <v>0.8383203831022643</v>
       </c>
       <c r="Q3">
-        <v>8.330378851466168</v>
+        <v>-5.989874420578551</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-171.6696211486632</v>
+        <v>174.0101255793317</v>
       </c>
       <c r="T3">
-        <v>1.673632605547273</v>
+        <v>1.541818903287516</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -8755,22 +8755,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.400766685784638</v>
+        <v>0.8383203830713342</v>
       </c>
       <c r="O4">
-        <v>0.2299548420569274</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.317507354909119</v>
+        <v>0.838320383128255</v>
       </c>
       <c r="Q4">
-        <v>9.176956004162319</v>
+        <v>-5.989874417367652</v>
       </c>
       <c r="R4">
-        <v>-106.5059085923763</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.8729458908539</v>
+        <v>174.010125577291</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.515442593609415</v>
+        <v>0.8383203830609927</v>
       </c>
       <c r="O5">
-        <v>0.3449322630762265</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.398958090111344</v>
+        <v>0.8383203831369177</v>
       </c>
       <c r="Q5">
-        <v>9.504191257806257</v>
+        <v>-5.989874416297368</v>
       </c>
       <c r="R5">
-        <v>-106.5059085940334</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>176.7016988889909</v>
+        <v>174.0101255766108</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.515442593609416</v>
+        <v>0.8383203830609928</v>
       </c>
       <c r="O6">
-        <v>0.3449322630762269</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.398958090111344</v>
+        <v>0.8383203831369177</v>
       </c>
       <c r="Q6">
-        <v>9.50419125780626</v>
+        <v>-5.989874416297356</v>
       </c>
       <c r="R6">
-        <v>-106.5059085940334</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>176.7016988889909</v>
+        <v>174.0101255766108</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.00493040114964</v>
+        <v>0.9906071603375056</v>
       </c>
       <c r="O2">
-        <v>0.9627180258517404</v>
+        <v>0.951784480252284</v>
       </c>
       <c r="P2">
-        <v>0.9843939837903466</v>
+        <v>0.975085074261915</v>
       </c>
       <c r="Q2">
-        <v>29.22366414722489</v>
+        <v>28.16032573231858</v>
       </c>
       <c r="R2">
-        <v>-90.78368680370214</v>
+        <v>-91.61401138281261</v>
       </c>
       <c r="S2">
-        <v>151.3483240771418</v>
+        <v>150.2468850048779</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9045,58 +9045,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.353739731491647</v>
+        <v>1.332307398888864</v>
       </c>
       <c r="D3">
-        <v>1.081111163598542</v>
+        <v>1.011025655018906</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>15.63163996778788</v>
+        <v>15.38416070783632</v>
       </c>
       <c r="G3">
-        <v>12.48359642655055</v>
+        <v>11.67431868165566</v>
       </c>
       <c r="H3">
-        <v>13.20394437273244</v>
+        <v>10.65491498231264</v>
       </c>
       <c r="I3">
-        <v>4.655359409756196</v>
+        <v>2.173959091208256</v>
       </c>
       <c r="J3">
-        <v>0.6750274779031088</v>
+        <v>0.1153518594840182</v>
       </c>
       <c r="K3">
-        <v>0.9252286926315889</v>
+        <v>2.416397540698256</v>
       </c>
       <c r="L3">
-        <v>0.115351859471422</v>
+        <v>0.1153518594713441</v>
       </c>
       <c r="M3">
-        <v>2.416397540675931</v>
+        <v>2.41639754067588</v>
       </c>
       <c r="N3">
-        <v>1.028827284281674</v>
+        <v>0.972755256451633</v>
       </c>
       <c r="O3">
-        <v>0.8259699379093602</v>
+        <v>0.7848521014138393</v>
       </c>
       <c r="P3">
-        <v>0.9237835043697957</v>
+        <v>0.8786293331945183</v>
       </c>
       <c r="Q3">
-        <v>26.401516266489</v>
+        <v>20.76298901305286</v>
       </c>
       <c r="R3">
-        <v>-95.0715171934695</v>
+        <v>-100.4045966786944</v>
       </c>
       <c r="S3">
-        <v>156.7094016251098</v>
+        <v>150.9154060545281</v>
       </c>
       <c r="T3">
-        <v>0.7382509808533047</v>
+        <v>0.8163878929598346</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -9140,22 +9140,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.080135745696224</v>
+        <v>0.9727552564449908</v>
       </c>
       <c r="O4">
-        <v>0.8770348903100144</v>
+        <v>0.7848521014214149</v>
       </c>
       <c r="P4">
-        <v>0.9759785823704211</v>
+        <v>0.8786293332052802</v>
       </c>
       <c r="Q4">
-        <v>26.9228431312916</v>
+        <v>20.76298901387265</v>
       </c>
       <c r="R4">
-        <v>-94.34357351419631</v>
+        <v>-100.4045966769022</v>
       </c>
       <c r="S4">
-        <v>156.7385343593389</v>
+        <v>150.9154060548271</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9202,22 +9202,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.10582117573405</v>
+        <v>0.9727552564427759</v>
       </c>
       <c r="O5">
-        <v>0.9026159474048944</v>
+        <v>0.78485210142394</v>
       </c>
       <c r="P5">
-        <v>1.002076208598015</v>
+        <v>0.8786293332088672</v>
       </c>
       <c r="Q5">
-        <v>27.16535499262752</v>
+        <v>20.76298901414593</v>
       </c>
       <c r="R5">
-        <v>-94.01051557984563</v>
+        <v>-100.4045966763047</v>
       </c>
       <c r="S5">
-        <v>156.7519626486958</v>
+        <v>150.9154060549267</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.10582117573405</v>
+        <v>0.9727552564427759</v>
       </c>
       <c r="O6">
-        <v>0.9026159474048944</v>
+        <v>0.7848521014239401</v>
       </c>
       <c r="P6">
-        <v>1.002076208598015</v>
+        <v>0.8786293332088672</v>
       </c>
       <c r="Q6">
-        <v>27.16535499262752</v>
+        <v>20.76298901414593</v>
       </c>
       <c r="R6">
-        <v>-94.01051557984563</v>
+        <v>-100.4045966763047</v>
       </c>
       <c r="S6">
-        <v>156.7519626486958</v>
+        <v>150.9154060549267</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.00493040114964</v>
+        <v>0.9906071603375056</v>
       </c>
       <c r="O2">
-        <v>0.9627180258517404</v>
+        <v>0.951784480252284</v>
       </c>
       <c r="P2">
-        <v>0.9843939837903466</v>
+        <v>0.975085074261915</v>
       </c>
       <c r="Q2">
-        <v>29.22366414722489</v>
+        <v>28.16032573231858</v>
       </c>
       <c r="R2">
-        <v>-90.78368680370214</v>
+        <v>-91.61401138281261</v>
       </c>
       <c r="S2">
-        <v>151.3483240771418</v>
+        <v>150.2468850048779</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9430,58 +9430,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.353739731491647</v>
+        <v>1.332307398888864</v>
       </c>
       <c r="D3">
-        <v>1.081111163598542</v>
+        <v>1.011025655018906</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>15.63163996778788</v>
+        <v>15.38416070783632</v>
       </c>
       <c r="G3">
-        <v>12.48359642655055</v>
+        <v>11.67431868165566</v>
       </c>
       <c r="H3">
-        <v>13.20394437273244</v>
+        <v>10.65491498231264</v>
       </c>
       <c r="I3">
-        <v>4.655359409756196</v>
+        <v>2.173959091208256</v>
       </c>
       <c r="J3">
-        <v>0.6750274779031088</v>
+        <v>0.1153518594840182</v>
       </c>
       <c r="K3">
-        <v>0.9252286926315889</v>
+        <v>2.416397540698256</v>
       </c>
       <c r="L3">
-        <v>0.115351859471422</v>
+        <v>0.1153518594713441</v>
       </c>
       <c r="M3">
-        <v>2.416397540675931</v>
+        <v>2.41639754067588</v>
       </c>
       <c r="N3">
-        <v>1.028827284281674</v>
+        <v>0.972755256451633</v>
       </c>
       <c r="O3">
-        <v>0.8259699379093602</v>
+        <v>0.7848521014138393</v>
       </c>
       <c r="P3">
-        <v>0.9237835043697957</v>
+        <v>0.8786293331945183</v>
       </c>
       <c r="Q3">
-        <v>26.401516266489</v>
+        <v>20.76298901305286</v>
       </c>
       <c r="R3">
-        <v>-95.0715171934695</v>
+        <v>-100.4045966786944</v>
       </c>
       <c r="S3">
-        <v>156.7094016251098</v>
+        <v>150.9154060545281</v>
       </c>
       <c r="T3">
-        <v>0.7382509808533047</v>
+        <v>0.8163878929598346</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -9525,22 +9525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.080135745696224</v>
+        <v>0.9727552564449908</v>
       </c>
       <c r="O4">
-        <v>0.8770348903100144</v>
+        <v>0.7848521014214149</v>
       </c>
       <c r="P4">
-        <v>0.9759785823704211</v>
+        <v>0.8786293332052802</v>
       </c>
       <c r="Q4">
-        <v>26.9228431312916</v>
+        <v>20.76298901387265</v>
       </c>
       <c r="R4">
-        <v>-94.34357351419631</v>
+        <v>-100.4045966769022</v>
       </c>
       <c r="S4">
-        <v>156.7385343593389</v>
+        <v>150.9154060548271</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9587,22 +9587,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.10582117573405</v>
+        <v>0.9727552564427759</v>
       </c>
       <c r="O5">
-        <v>0.9026159474048944</v>
+        <v>0.78485210142394</v>
       </c>
       <c r="P5">
-        <v>1.002076208598015</v>
+        <v>0.8786293332088672</v>
       </c>
       <c r="Q5">
-        <v>27.16535499262752</v>
+        <v>20.76298901414593</v>
       </c>
       <c r="R5">
-        <v>-94.01051557984563</v>
+        <v>-100.4045966763047</v>
       </c>
       <c r="S5">
-        <v>156.7519626486958</v>
+        <v>150.9154060549267</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.10582117573405</v>
+        <v>0.9727552564427759</v>
       </c>
       <c r="O6">
-        <v>0.9026159474048944</v>
+        <v>0.7848521014239401</v>
       </c>
       <c r="P6">
-        <v>1.002076208598015</v>
+        <v>0.8786293332088672</v>
       </c>
       <c r="Q6">
-        <v>27.16535499262752</v>
+        <v>20.76298901414593</v>
       </c>
       <c r="R6">
-        <v>-94.01051557984563</v>
+        <v>-100.4045966763047</v>
       </c>
       <c r="S6">
-        <v>156.7519626486958</v>
+        <v>150.9154060549267</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9723,10 +9723,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.078560055256107</v>
+        <v>1.052967690033817</v>
       </c>
       <c r="G2">
-        <v>-0.2366615503256251</v>
+        <v>-1.442860822386479</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9734,22 +9734,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.615323135457774</v>
+        <v>1.424532906338662</v>
       </c>
       <c r="C3">
-        <v>55.95643482508657</v>
+        <v>49.34726741664637</v>
       </c>
       <c r="D3">
-        <v>0.3928146973799873</v>
+        <v>0.1077319053846547</v>
       </c>
       <c r="E3">
-        <v>0.7226227689206017</v>
+        <v>2.308438694642959</v>
       </c>
       <c r="F3">
-        <v>0.9891793628950201</v>
+        <v>0.872344685579278</v>
       </c>
       <c r="G3">
-        <v>45.00000000001764</v>
+        <v>45.00000000014265</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9769,10 +9769,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.062959741151375</v>
+        <v>0.8723446855789757</v>
       </c>
       <c r="G4">
-        <v>-0.52711984668414</v>
+        <v>-10.05101633843851</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9792,10 +9792,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023830402</v>
+        <v>0.8723446855788749</v>
       </c>
       <c r="G5">
-        <v>-8.439701576506097E-10</v>
+        <v>-10.05101633803358</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9815,10 +9815,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023830402</v>
+        <v>0.8723446855788749</v>
       </c>
       <c r="G6">
-        <v>-8.439701576506091E-10</v>
+        <v>-10.05101633803358</v>
       </c>
     </row>
   </sheetData>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7936674232646015</v>
+        <v>0.7936674232649462</v>
       </c>
       <c r="G2">
-        <v>0.77507376098905</v>
+        <v>0.7750737609131123</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9885,22 +9885,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>10.08208641634116</v>
+        <v>4.773167820022141</v>
       </c>
       <c r="C3">
-        <v>349.2537183880583</v>
+        <v>165.3473835466225</v>
       </c>
       <c r="D3">
-        <v>0.675027477884881</v>
+        <v>0.1153518594907281</v>
       </c>
       <c r="E3">
-        <v>0.9252286926141778</v>
+        <v>2.416397540675824</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>53.88629272269358</v>
+        <v>87.26693929749274</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9920,10 +9920,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.666666666627187</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>-5.60574817387955E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9943,10 +9943,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999383073</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-5.671201985405675E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999383073</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-5.671201985405678E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10025,10 +10025,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7936674232646015</v>
+        <v>0.7936674232649462</v>
       </c>
       <c r="G2">
-        <v>0.77507376098905</v>
+        <v>0.7750737609131123</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10036,22 +10036,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>10.08208641634116</v>
+        <v>4.773167820022141</v>
       </c>
       <c r="C3">
-        <v>349.2537183880583</v>
+        <v>165.3473835466225</v>
       </c>
       <c r="D3">
-        <v>0.675027477884881</v>
+        <v>0.1153518594907281</v>
       </c>
       <c r="E3">
-        <v>0.9252286926141778</v>
+        <v>2.416397540675824</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>53.88629272269358</v>
+        <v>87.26693929749274</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10071,10 +10071,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.666666666627187</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>-5.60574817387955E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10094,10 +10094,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999383073</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-5.671201985405675E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10117,10 +10117,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999383073</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-5.671201985405678E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10176,10 +10176,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9712469717399295</v>
+        <v>0.9517844802483585</v>
       </c>
       <c r="G2">
-        <v>-0.1386668647109439</v>
+        <v>-1.614011382827025</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10187,22 +10187,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.40739431324642</v>
+        <v>1.28165811467074</v>
       </c>
       <c r="C3">
-        <v>48.75356913652615</v>
+        <v>44.39793945085318</v>
       </c>
       <c r="D3">
-        <v>0.675027477884881</v>
+        <v>0.1153518594907281</v>
       </c>
       <c r="E3">
-        <v>0.9252286926141778</v>
+        <v>2.416397540675824</v>
       </c>
       <c r="F3">
-        <v>0.8618494835866041</v>
+        <v>0.7848521014100437</v>
       </c>
       <c r="G3">
-        <v>44.99999999997153</v>
+        <v>44.99999999986315</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10222,10 +10222,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9539031440601138</v>
+        <v>0.7848521014176199</v>
       </c>
       <c r="G4">
-        <v>-0.3720937850798557</v>
+        <v>-10.40459667698047</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10245,10 +10245,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999934049</v>
+        <v>0.7848521014201453</v>
       </c>
       <c r="G5">
-        <v>-8.468997397769327E-10</v>
+        <v>-10.40459667638313</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10268,10 +10268,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999934049</v>
+        <v>0.7848521014201453</v>
       </c>
       <c r="G6">
-        <v>-8.46899739776933E-10</v>
+        <v>-10.40459667638313</v>
       </c>
     </row>
   </sheetData>
@@ -10327,10 +10327,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9712469717399295</v>
+        <v>0.9517844802483585</v>
       </c>
       <c r="G2">
-        <v>-0.1386668647109439</v>
+        <v>-1.614011382827025</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10338,22 +10338,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1.40739431324642</v>
+        <v>1.28165811467074</v>
       </c>
       <c r="C3">
-        <v>48.75356913652615</v>
+        <v>44.39793945085318</v>
       </c>
       <c r="D3">
-        <v>0.675027477884881</v>
+        <v>0.1153518594907281</v>
       </c>
       <c r="E3">
-        <v>0.9252286926141778</v>
+        <v>2.416397540675824</v>
       </c>
       <c r="F3">
-        <v>0.8618494835866041</v>
+        <v>0.7848521014100437</v>
       </c>
       <c r="G3">
-        <v>44.99999999997153</v>
+        <v>44.99999999986315</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10373,10 +10373,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9539031440601138</v>
+        <v>0.7848521014176199</v>
       </c>
       <c r="G4">
-        <v>-0.3720937850798557</v>
+        <v>-10.40459667698047</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10396,10 +10396,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999934049</v>
+        <v>0.7848521014201453</v>
       </c>
       <c r="G5">
-        <v>-8.468997397769327E-10</v>
+        <v>-10.40459667638313</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10419,10 +10419,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999934049</v>
+        <v>0.7848521014201453</v>
       </c>
       <c r="G6">
-        <v>-8.46899739776933E-10</v>
+        <v>-10.40459667638313</v>
       </c>
     </row>
   </sheetData>
@@ -10538,22 +10538,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.140728541369814</v>
+        <v>1.04659506804995</v>
       </c>
       <c r="O2">
-        <v>0.8909260930493309</v>
+        <v>0.890926093052382</v>
       </c>
       <c r="P2">
-        <v>1.129697520623526</v>
+        <v>1.056652021165216</v>
       </c>
       <c r="Q2">
-        <v>24.46915770125949</v>
+        <v>25.18850204033979</v>
       </c>
       <c r="R2">
-        <v>-89.28600430313648</v>
+        <v>-89.28600430314906</v>
       </c>
       <c r="S2">
-        <v>158.2638955218483</v>
+        <v>155.0677071882993</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -10564,55 +10564,55 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.16119423267912</v>
+        <v>4.759944874248876</v>
       </c>
       <c r="D3">
-        <v>7.16119423267912</v>
+        <v>4.759944874248876</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>82.69034835912973</v>
+        <v>54.96310908950736</v>
       </c>
       <c r="G3">
-        <v>82.69034835912973</v>
+        <v>54.96310908950736</v>
       </c>
       <c r="H3">
-        <v>8.087653516667004</v>
+        <v>5.549477056495876</v>
       </c>
       <c r="I3">
-        <v>4.690162830537893</v>
+        <v>2.197592797843661</v>
       </c>
       <c r="J3">
-        <v>0.3928146973851533</v>
+        <v>0.1077319054063102</v>
       </c>
       <c r="K3">
-        <v>0.7226227689270468</v>
+        <v>2.308438694631066</v>
       </c>
       <c r="L3">
-        <v>0.107731905413396</v>
+        <v>0.1077319054133287</v>
       </c>
       <c r="M3">
-        <v>2.308438694642998</v>
+        <v>2.308438694642942</v>
       </c>
       <c r="N3">
-        <v>1.433200187744535</v>
+        <v>0.9526279648020819</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1.433200187746245</v>
+        <v>0.9526279648025193</v>
       </c>
       <c r="Q3">
-        <v>6.705157968570707</v>
+        <v>-4.057898871037865E-12</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>-173.2948420314155</v>
+        <v>-179.99999999999</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10656,22 +10656,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.62908203453838</v>
+        <v>0.9526279647753109</v>
       </c>
       <c r="O4">
-        <v>0.1963332894501646</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.5519263187304</v>
+        <v>0.9526279648292906</v>
       </c>
       <c r="Q4">
-        <v>7.204114301359171</v>
+        <v>1.415050686472405E-09</v>
       </c>
       <c r="R4">
-        <v>-109.1511763453201</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>-179.3049172438177</v>
+        <v>179.9999999985763</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10715,22 +10715,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.72706140430087</v>
+        <v>0.9526279647663871</v>
       </c>
       <c r="O5">
-        <v>0.2944999341725942</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.616969891336567</v>
+        <v>0.9526279648382142</v>
       </c>
       <c r="Q5">
-        <v>7.411141343309365</v>
+        <v>1.888097484370796E-09</v>
       </c>
       <c r="R5">
-        <v>-109.151176347295</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>178.0354964738001</v>
+        <v>179.9999999981033</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10774,22 +10774,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.727061404300871</v>
+        <v>0.952627964766387</v>
       </c>
       <c r="O6">
-        <v>0.2944999341725944</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.616969891336567</v>
+        <v>0.9526279648382142</v>
       </c>
       <c r="Q6">
-        <v>7.411141343309364</v>
+        <v>1.888099387923842E-09</v>
       </c>
       <c r="R6">
-        <v>-109.1511763472951</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>178.0354964738001</v>
+        <v>179.9999999981033</v>
       </c>
     </row>
   </sheetData>
